--- a/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
+++ b/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11219" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11619" uniqueCount="3540">
   <si>
     <t xml:space="preserve">Job Catalog Data Import Template   </t>
   </si>
@@ -9580,6 +9580,1206 @@
   </si>
   <si>
     <t>JOU100-20260122114032</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>SE01-20260122165640</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260122165640</t>
+  </si>
+  <si>
+    <t>DA02-20260122165640</t>
+  </si>
+  <si>
+    <t>Product Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>PM03-20260122165640</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>SM04-20260122165640</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>MS05-20260122165640</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>HR06-20260122165640</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260122165640</t>
+  </si>
+  <si>
+    <t>FA07-20260122165640</t>
+  </si>
+  <si>
+    <t>Accountant 20260122165640</t>
+  </si>
+  <si>
+    <t>AC08-20260122165640</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260122165640</t>
+  </si>
+  <si>
+    <t>CS09-20260122165640</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>OM10-20260122165640</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>QA11-20260122165640</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>DO12-20260122165640</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260122165640</t>
+  </si>
+  <si>
+    <t>BA13-20260122165640</t>
+  </si>
+  <si>
+    <t>Project Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>PJM14-20260122165640</t>
+  </si>
+  <si>
+    <t>UX Designer 20260122165640</t>
+  </si>
+  <si>
+    <t>UX15-20260122165640</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260122165640</t>
+  </si>
+  <si>
+    <t>GD16-20260122165640</t>
+  </si>
+  <si>
+    <t>Content Writer 20260122165640</t>
+  </si>
+  <si>
+    <t>CW17-20260122165640</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260122165640</t>
+  </si>
+  <si>
+    <t>NA18-20260122165640</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260122165640</t>
+  </si>
+  <si>
+    <t>DBA19-20260122165640</t>
+  </si>
+  <si>
+    <t>System Administrator 20260122165640</t>
+  </si>
+  <si>
+    <t>SA20-20260122165640</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260122165640</t>
+  </si>
+  <si>
+    <t>CA21-20260122165640</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260122165640</t>
+  </si>
+  <si>
+    <t>LC22-20260122165640</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260122165640</t>
+  </si>
+  <si>
+    <t>CO23-20260122165640</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>SCM24-20260122165640</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260122165640</t>
+  </si>
+  <si>
+    <t>LOG25-20260122165640</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>PS26-20260122165640</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260122165640</t>
+  </si>
+  <si>
+    <t>TC27-20260122165640</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>RS28-20260122165640</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260122165640</t>
+  </si>
+  <si>
+    <t>PA29-20260122165640</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260122165640</t>
+  </si>
+  <si>
+    <t>EA30-20260122165640</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260122165640</t>
+  </si>
+  <si>
+    <t>AA31-20260122165640</t>
+  </si>
+  <si>
+    <t>Receptionist 20260122165640</t>
+  </si>
+  <si>
+    <t>REC32-20260122165640</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260122165640</t>
+  </si>
+  <si>
+    <t>SEX33-20260122165640</t>
+  </si>
+  <si>
+    <t>Account Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>AM34-20260122165640</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>BDM35-20260122165640</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>CSM36-20260122165640</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>TS37-20260122165640</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260122165640</t>
+  </si>
+  <si>
+    <t>HD38-20260122165640</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>MM39-20260122165640</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>BM40-20260122165640</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>SMM41-20260122165640</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>SEO42-20260122165640</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>PR43-20260122165640</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>COM44-20260122165640</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260122165640</t>
+  </si>
+  <si>
+    <t>RES45-20260122165640</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260122165640</t>
+  </si>
+  <si>
+    <t>LAB46-20260122165640</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260122165640</t>
+  </si>
+  <si>
+    <t>CRC47-20260122165640</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260122165640</t>
+  </si>
+  <si>
+    <t>PH48-20260122165640</t>
+  </si>
+  <si>
+    <t>Nurse 20260122165640</t>
+  </si>
+  <si>
+    <t>NUR49-20260122165640</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260122165640</t>
+  </si>
+  <si>
+    <t>MA50-20260122165640</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260122165640</t>
+  </si>
+  <si>
+    <t>PT51-20260122165640</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260122165640</t>
+  </si>
+  <si>
+    <t>OT52-20260122165640</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260122165640</t>
+  </si>
+  <si>
+    <t>RT53-20260122165640</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>CM54-20260122165640</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>CE55-20260122165640</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>ME56-20260122165640</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>EE57-20260122165640</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260122165640</t>
+  </si>
+  <si>
+    <t>MFE58-20260122165640</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260122165640</t>
+  </si>
+  <si>
+    <t>PRS59-20260122165640</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>WM60-20260122165640</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>INV61-20260122165640</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260122165640</t>
+  </si>
+  <si>
+    <t>MT62-20260122165640</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>FM63-20260122165640</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>EHS64-20260122165640</t>
+  </si>
+  <si>
+    <t>Security Officer 20260122165640</t>
+  </si>
+  <si>
+    <t>SO65-20260122165640</t>
+  </si>
+  <si>
+    <t>Teacher 20260122165640</t>
+  </si>
+  <si>
+    <t>TEA66-20260122165640</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>TRS67-20260122165640</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260122165640</t>
+  </si>
+  <si>
+    <t>ID68-20260122165640</t>
+  </si>
+  <si>
+    <t>Librarian 20260122165640</t>
+  </si>
+  <si>
+    <t>LIB69-20260122165640</t>
+  </si>
+  <si>
+    <t>Architect 20260122165640</t>
+  </si>
+  <si>
+    <t>ARC70-20260122165640</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260122165640</t>
+  </si>
+  <si>
+    <t>IDE71-20260122165640</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260122165640</t>
+  </si>
+  <si>
+    <t>REA72-20260122165640</t>
+  </si>
+  <si>
+    <t>Property Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>PRM73-20260122165640</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260122165640</t>
+  </si>
+  <si>
+    <t>FIA74-20260122165640</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260122165640</t>
+  </si>
+  <si>
+    <t>IA75-20260122165640</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260122165640</t>
+  </si>
+  <si>
+    <t>CRA76-20260122165640</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>RM77-20260122165640</t>
+  </si>
+  <si>
+    <t>Auditor 20260122165640</t>
+  </si>
+  <si>
+    <t>AUD78-20260122165640</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260122165640</t>
+  </si>
+  <si>
+    <t>TAX79-20260122165640</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260122165640</t>
+  </si>
+  <si>
+    <t>BUA80-20260122165640</t>
+  </si>
+  <si>
+    <t>Paralegal 20260122165640</t>
+  </si>
+  <si>
+    <t>PAR81-20260122165640</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>CTM82-20260122165640</t>
+  </si>
+  <si>
+    <t>Chef 20260122165640</t>
+  </si>
+  <si>
+    <t>CHF83-20260122165640</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>REM84-20260122165640</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260122165640</t>
+  </si>
+  <si>
+    <t>EVC85-20260122165640</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260122165640</t>
+  </si>
+  <si>
+    <t>TRC86-20260122165640</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>HM87-20260122165640</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260122165640</t>
+  </si>
+  <si>
+    <t>FA88-20260122165640</t>
+  </si>
+  <si>
+    <t>Pilot 20260122165640</t>
+  </si>
+  <si>
+    <t>PIL89-20260122165640</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260122165640</t>
+  </si>
+  <si>
+    <t>TD90-20260122165640</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260122165640</t>
+  </si>
+  <si>
+    <t>DD91-20260122165640</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>RSM92-20260122165640</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260122165640</t>
+  </si>
+  <si>
+    <t>SAL93-20260122165640</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260122165640</t>
+  </si>
+  <si>
+    <t>VM94-20260122165640</t>
+  </si>
+  <si>
+    <t>Buyer 20260122165640</t>
+  </si>
+  <si>
+    <t>BUY95-20260122165640</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>ECM96-20260122165640</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260122165640</t>
+  </si>
+  <si>
+    <t>DMM97-20260122165640</t>
+  </si>
+  <si>
+    <t>Videographer 20260122165640</t>
+  </si>
+  <si>
+    <t>VID98-20260122165640</t>
+  </si>
+  <si>
+    <t>Photographer 20260122165640</t>
+  </si>
+  <si>
+    <t>PHO99-20260122165640</t>
+  </si>
+  <si>
+    <t>Journalist 20260122165640</t>
+  </si>
+  <si>
+    <t>JOU100-20260122165640</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>SE01-20260122170646</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260122170646</t>
+  </si>
+  <si>
+    <t>DA02-20260122170646</t>
+  </si>
+  <si>
+    <t>Product Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>PM03-20260122170646</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>SM04-20260122170646</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>MS05-20260122170646</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>HR06-20260122170646</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260122170646</t>
+  </si>
+  <si>
+    <t>FA07-20260122170646</t>
+  </si>
+  <si>
+    <t>Accountant 20260122170646</t>
+  </si>
+  <si>
+    <t>AC08-20260122170646</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260122170646</t>
+  </si>
+  <si>
+    <t>CS09-20260122170646</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>OM10-20260122170646</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>QA11-20260122170646</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>DO12-20260122170646</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260122170646</t>
+  </si>
+  <si>
+    <t>BA13-20260122170646</t>
+  </si>
+  <si>
+    <t>Project Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>PJM14-20260122170646</t>
+  </si>
+  <si>
+    <t>UX Designer 20260122170646</t>
+  </si>
+  <si>
+    <t>UX15-20260122170646</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260122170646</t>
+  </si>
+  <si>
+    <t>GD16-20260122170646</t>
+  </si>
+  <si>
+    <t>Content Writer 20260122170646</t>
+  </si>
+  <si>
+    <t>CW17-20260122170646</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260122170646</t>
+  </si>
+  <si>
+    <t>NA18-20260122170646</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260122170646</t>
+  </si>
+  <si>
+    <t>DBA19-20260122170646</t>
+  </si>
+  <si>
+    <t>System Administrator 20260122170646</t>
+  </si>
+  <si>
+    <t>SA20-20260122170646</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260122170646</t>
+  </si>
+  <si>
+    <t>CA21-20260122170646</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260122170646</t>
+  </si>
+  <si>
+    <t>LC22-20260122170646</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260122170646</t>
+  </si>
+  <si>
+    <t>CO23-20260122170646</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>SCM24-20260122170646</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260122170646</t>
+  </si>
+  <si>
+    <t>LOG25-20260122170646</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>PS26-20260122170646</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260122170646</t>
+  </si>
+  <si>
+    <t>TC27-20260122170646</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>RS28-20260122170646</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260122170646</t>
+  </si>
+  <si>
+    <t>PA29-20260122170646</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260122170646</t>
+  </si>
+  <si>
+    <t>EA30-20260122170646</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260122170646</t>
+  </si>
+  <si>
+    <t>AA31-20260122170646</t>
+  </si>
+  <si>
+    <t>Receptionist 20260122170646</t>
+  </si>
+  <si>
+    <t>REC32-20260122170646</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260122170646</t>
+  </si>
+  <si>
+    <t>SEX33-20260122170646</t>
+  </si>
+  <si>
+    <t>Account Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>AM34-20260122170646</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>BDM35-20260122170646</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>CSM36-20260122170646</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>TS37-20260122170646</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260122170646</t>
+  </si>
+  <si>
+    <t>HD38-20260122170646</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>MM39-20260122170646</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>BM40-20260122170646</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>SMM41-20260122170646</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>SEO42-20260122170646</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>PR43-20260122170646</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>COM44-20260122170646</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260122170646</t>
+  </si>
+  <si>
+    <t>RES45-20260122170646</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260122170646</t>
+  </si>
+  <si>
+    <t>LAB46-20260122170646</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260122170646</t>
+  </si>
+  <si>
+    <t>CRC47-20260122170646</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260122170646</t>
+  </si>
+  <si>
+    <t>PH48-20260122170646</t>
+  </si>
+  <si>
+    <t>Nurse 20260122170646</t>
+  </si>
+  <si>
+    <t>NUR49-20260122170646</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260122170646</t>
+  </si>
+  <si>
+    <t>MA50-20260122170646</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260122170646</t>
+  </si>
+  <si>
+    <t>PT51-20260122170646</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260122170646</t>
+  </si>
+  <si>
+    <t>OT52-20260122170646</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260122170646</t>
+  </si>
+  <si>
+    <t>RT53-20260122170646</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>CM54-20260122170646</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>CE55-20260122170646</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>ME56-20260122170646</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>EE57-20260122170646</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260122170646</t>
+  </si>
+  <si>
+    <t>MFE58-20260122170646</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260122170646</t>
+  </si>
+  <si>
+    <t>PRS59-20260122170646</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>WM60-20260122170646</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>INV61-20260122170646</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260122170646</t>
+  </si>
+  <si>
+    <t>MT62-20260122170646</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>FM63-20260122170646</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>EHS64-20260122170646</t>
+  </si>
+  <si>
+    <t>Security Officer 20260122170646</t>
+  </si>
+  <si>
+    <t>SO65-20260122170646</t>
+  </si>
+  <si>
+    <t>Teacher 20260122170646</t>
+  </si>
+  <si>
+    <t>TEA66-20260122170646</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>TRS67-20260122170646</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260122170646</t>
+  </si>
+  <si>
+    <t>ID68-20260122170646</t>
+  </si>
+  <si>
+    <t>Librarian 20260122170646</t>
+  </si>
+  <si>
+    <t>LIB69-20260122170646</t>
+  </si>
+  <si>
+    <t>Architect 20260122170646</t>
+  </si>
+  <si>
+    <t>ARC70-20260122170646</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260122170646</t>
+  </si>
+  <si>
+    <t>IDE71-20260122170646</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260122170646</t>
+  </si>
+  <si>
+    <t>REA72-20260122170646</t>
+  </si>
+  <si>
+    <t>Property Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>PRM73-20260122170646</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260122170646</t>
+  </si>
+  <si>
+    <t>FIA74-20260122170646</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260122170646</t>
+  </si>
+  <si>
+    <t>IA75-20260122170646</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260122170646</t>
+  </si>
+  <si>
+    <t>CRA76-20260122170646</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>RM77-20260122170646</t>
+  </si>
+  <si>
+    <t>Auditor 20260122170646</t>
+  </si>
+  <si>
+    <t>AUD78-20260122170646</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260122170646</t>
+  </si>
+  <si>
+    <t>TAX79-20260122170646</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260122170646</t>
+  </si>
+  <si>
+    <t>BUA80-20260122170646</t>
+  </si>
+  <si>
+    <t>Paralegal 20260122170646</t>
+  </si>
+  <si>
+    <t>PAR81-20260122170646</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>CTM82-20260122170646</t>
+  </si>
+  <si>
+    <t>Chef 20260122170646</t>
+  </si>
+  <si>
+    <t>CHF83-20260122170646</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>REM84-20260122170646</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260122170646</t>
+  </si>
+  <si>
+    <t>EVC85-20260122170646</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260122170646</t>
+  </si>
+  <si>
+    <t>TRC86-20260122170646</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>HM87-20260122170646</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260122170646</t>
+  </si>
+  <si>
+    <t>FA88-20260122170646</t>
+  </si>
+  <si>
+    <t>Pilot 20260122170646</t>
+  </si>
+  <si>
+    <t>PIL89-20260122170646</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260122170646</t>
+  </si>
+  <si>
+    <t>TD90-20260122170646</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260122170646</t>
+  </si>
+  <si>
+    <t>DD91-20260122170646</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>RSM92-20260122170646</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260122170646</t>
+  </si>
+  <si>
+    <t>SAL93-20260122170646</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260122170646</t>
+  </si>
+  <si>
+    <t>VM94-20260122170646</t>
+  </si>
+  <si>
+    <t>Buyer 20260122170646</t>
+  </si>
+  <si>
+    <t>BUY95-20260122170646</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>ECM96-20260122170646</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260122170646</t>
+  </si>
+  <si>
+    <t>DMM97-20260122170646</t>
+  </si>
+  <si>
+    <t>Videographer 20260122170646</t>
+  </si>
+  <si>
+    <t>VID98-20260122170646</t>
+  </si>
+  <si>
+    <t>Photographer 20260122170646</t>
+  </si>
+  <si>
+    <t>PHO99-20260122170646</t>
+  </si>
+  <si>
+    <t>Journalist 20260122170646</t>
+  </si>
+  <si>
+    <t>JOU100-20260122170646</t>
   </si>
 </sst>
 </file>
@@ -10836,10 +12036,10 @@
     </row>
     <row r="7" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>2940</v>
+        <v>3340</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2941</v>
+        <v>3341</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>134</v>
@@ -10891,10 +12091,10 @@
     </row>
     <row r="8" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>2942</v>
+        <v>3342</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2943</v>
+        <v>3343</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2375</v>
@@ -10946,10 +12146,10 @@
     </row>
     <row r="9" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>2944</v>
+        <v>3344</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2945</v>
+        <v>3345</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2380</v>
@@ -10999,10 +12199,10 @@
     </row>
     <row r="10" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>2946</v>
+        <v>3346</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2947</v>
+        <v>3347</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>220</v>
@@ -11050,10 +12250,10 @@
     </row>
     <row r="11" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>2948</v>
+        <v>3348</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2949</v>
+        <v>3349</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>187</v>
@@ -11105,10 +12305,10 @@
     </row>
     <row r="12" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>2950</v>
+        <v>3350</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2951</v>
+        <v>3351</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1106</v>
@@ -11160,10 +12360,10 @@
     </row>
     <row r="13" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>2952</v>
+        <v>3352</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2953</v>
+        <v>3353</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>306</v>
@@ -11215,10 +12415,10 @@
     </row>
     <row r="14" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>2954</v>
+        <v>3354</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2955</v>
+        <v>3355</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>306</v>
@@ -11270,10 +12470,10 @@
     </row>
     <row r="15" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>2956</v>
+        <v>3356</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2957</v>
+        <v>3357</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>130</v>
@@ -11323,10 +12523,10 @@
     </row>
     <row r="16" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>2958</v>
+        <v>3358</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2959</v>
+        <v>3359</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2402</v>
@@ -11378,10 +12578,10 @@
     </row>
     <row r="17" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>2960</v>
+        <v>3360</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2961</v>
+        <v>3361</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>134</v>
@@ -11427,10 +12627,10 @@
     </row>
     <row r="18" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>2962</v>
+        <v>3362</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2963</v>
+        <v>3363</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>134</v>
@@ -11482,10 +12682,10 @@
     </row>
     <row r="19" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>2964</v>
+        <v>3364</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2965</v>
+        <v>3365</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2375</v>
@@ -11537,10 +12737,10 @@
     </row>
     <row r="20" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>2966</v>
+        <v>3366</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2967</v>
+        <v>3367</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2417</v>
@@ -11592,10 +12792,10 @@
     </row>
     <row r="21" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>2968</v>
+        <v>3368</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2969</v>
+        <v>3369</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2421</v>
@@ -11647,10 +12847,10 @@
     </row>
     <row r="22" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>2970</v>
+        <v>3370</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2971</v>
+        <v>3371</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2421</v>
@@ -11698,10 +12898,10 @@
     </row>
     <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>2972</v>
+        <v>3372</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2973</v>
+        <v>3373</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>187</v>
@@ -11753,10 +12953,10 @@
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>2974</v>
+        <v>3374</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2975</v>
+        <v>3375</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>1124</v>
@@ -11808,10 +13008,10 @@
     </row>
     <row r="25" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>2976</v>
+        <v>3376</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2977</v>
+        <v>3377</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1124</v>
@@ -11855,10 +13055,10 @@
     </row>
     <row r="26" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>2978</v>
+        <v>3378</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2979</v>
+        <v>3379</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1124</v>
@@ -11910,10 +13110,10 @@
     </row>
     <row r="27" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>2980</v>
+        <v>3380</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2981</v>
+        <v>3381</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>1124</v>
@@ -11965,10 +13165,10 @@
     </row>
     <row r="28" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>2982</v>
+        <v>3382</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2983</v>
+        <v>3383</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>176</v>
@@ -12020,10 +13220,10 @@
     </row>
     <row r="29" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>2984</v>
+        <v>3384</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2985</v>
+        <v>3385</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2452</v>
@@ -12075,10 +13275,10 @@
     </row>
     <row r="30" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>2986</v>
+        <v>3386</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2987</v>
+        <v>3387</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2456</v>
@@ -12128,10 +13328,10 @@
     </row>
     <row r="31" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>2988</v>
+        <v>3388</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2989</v>
+        <v>3389</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2460</v>
@@ -12183,10 +13383,10 @@
     </row>
     <row r="32" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>2990</v>
+        <v>3390</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2991</v>
+        <v>3391</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2464</v>
@@ -12238,10 +13438,10 @@
     </row>
     <row r="33" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>2992</v>
+        <v>3392</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2993</v>
+        <v>3393</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>1106</v>
@@ -12293,10 +13493,10 @@
     </row>
     <row r="34" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>2994</v>
+        <v>3394</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2995</v>
+        <v>3395</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1106</v>
@@ -12348,10 +13548,10 @@
     </row>
     <row r="35" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>2996</v>
+        <v>3396</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2997</v>
+        <v>3397</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1106</v>
@@ -12403,10 +13603,10 @@
     </row>
     <row r="36" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>2998</v>
+        <v>3398</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2479</v>
@@ -12458,10 +13658,10 @@
     </row>
     <row r="37" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3001</v>
+        <v>3401</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2479</v>
@@ -12511,10 +13711,10 @@
     </row>
     <row r="38" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>3002</v>
+        <v>3402</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>3003</v>
+        <v>3403</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2479</v>
@@ -12566,10 +13766,10 @@
     </row>
     <row r="39" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>3004</v>
+        <v>3404</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>3005</v>
+        <v>3405</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>220</v>
@@ -12621,10 +13821,10 @@
     </row>
     <row r="40" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>3006</v>
+        <v>3406</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3007</v>
+        <v>3407</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>220</v>
@@ -12676,10 +13876,10 @@
     </row>
     <row r="41" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>3008</v>
+        <v>3408</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3009</v>
+        <v>3409</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>220</v>
@@ -12731,10 +13931,10 @@
     </row>
     <row r="42" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>3010</v>
+        <v>3410</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3011</v>
+        <v>3411</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>130</v>
@@ -12784,10 +13984,10 @@
     </row>
     <row r="43" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>3012</v>
+        <v>3412</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3013</v>
+        <v>3413</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2502</v>
@@ -12839,10 +14039,10 @@
     </row>
     <row r="44" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>3014</v>
+        <v>3414</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>3015</v>
+        <v>3415</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2502</v>
@@ -12894,10 +14094,10 @@
     </row>
     <row r="45" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>3016</v>
+        <v>3416</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3017</v>
+        <v>3417</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>187</v>
@@ -12949,10 +14149,10 @@
     </row>
     <row r="46" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>3018</v>
+        <v>3418</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>3019</v>
+        <v>3419</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>187</v>
@@ -13004,10 +14204,10 @@
     </row>
     <row r="47" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>3020</v>
+        <v>3420</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3021</v>
+        <v>3421</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>187</v>
@@ -13059,10 +14259,10 @@
     </row>
     <row r="48" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>3022</v>
+        <v>3422</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>3023</v>
+        <v>3423</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>187</v>
@@ -13112,10 +14312,10 @@
     </row>
     <row r="49" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>3024</v>
+        <v>3424</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>3025</v>
+        <v>3425</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>30</v>
@@ -13167,10 +14367,10 @@
     </row>
     <row r="50" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>3026</v>
+        <v>3426</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>3027</v>
+        <v>3427</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -13222,10 +14422,10 @@
     </row>
     <row r="51" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>3028</v>
+        <v>3428</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>3029</v>
+        <v>3429</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>422</v>
@@ -13277,10 +14477,10 @@
     </row>
     <row r="52" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>3030</v>
+        <v>3430</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>3031</v>
+        <v>3431</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>422</v>
@@ -13332,10 +14532,10 @@
     </row>
     <row r="53" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>3032</v>
+        <v>3432</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>3033</v>
+        <v>3433</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>422</v>
@@ -13387,10 +14587,10 @@
     </row>
     <row r="54" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>3034</v>
+        <v>3434</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>3035</v>
+        <v>3435</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -13430,10 +14630,10 @@
     </row>
     <row r="55" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>3036</v>
+        <v>3436</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>3037</v>
+        <v>3437</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>2531</v>
@@ -13485,10 +14685,10 @@
     </row>
     <row r="56" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>3038</v>
+        <v>3438</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>3039</v>
+        <v>3439</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2531</v>
@@ -13540,10 +14740,10 @@
     </row>
     <row r="57" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>3040</v>
+        <v>3440</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>3041</v>
+        <v>3441</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2531</v>
@@ -13595,10 +14795,10 @@
     </row>
     <row r="58" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>3042</v>
+        <v>3442</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>3043</v>
+        <v>3443</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2531</v>
@@ -13650,10 +14850,10 @@
     </row>
     <row r="59" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>3044</v>
+        <v>3444</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>3045</v>
+        <v>3445</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
@@ -13701,10 +14901,10 @@
     </row>
     <row r="60" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>3046</v>
+        <v>3446</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>3047</v>
+        <v>3447</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>727</v>
@@ -13756,10 +14956,10 @@
     </row>
     <row r="61" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>3048</v>
+        <v>3448</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>3049</v>
+        <v>3449</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>134</v>
@@ -13811,10 +15011,10 @@
     </row>
     <row r="62" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>3050</v>
+        <v>3450</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>3051</v>
+        <v>3451</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>134</v>
@@ -13866,10 +15066,10 @@
     </row>
     <row r="63" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>3052</v>
+        <v>3452</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>3053</v>
+        <v>3453</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>134</v>
@@ -13917,10 +15117,10 @@
     </row>
     <row r="64" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>3054</v>
+        <v>3454</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>3055</v>
+        <v>3455</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
@@ -13968,10 +15168,10 @@
     </row>
     <row r="65" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>3056</v>
+        <v>3456</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>3057</v>
+        <v>3457</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>204</v>
@@ -14023,10 +15223,10 @@
     </row>
     <row r="66" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>3058</v>
+        <v>3458</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>3059</v>
+        <v>3459</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2572</v>
@@ -14078,10 +15278,10 @@
     </row>
     <row r="67" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>3060</v>
+        <v>3460</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>3061</v>
+        <v>3461</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2577</v>
@@ -14133,10 +15333,10 @@
     </row>
     <row r="68" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>3062</v>
+        <v>3462</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>3063</v>
+        <v>3463</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>562</v>
@@ -14188,10 +15388,10 @@
     </row>
     <row r="69" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>3064</v>
+        <v>3464</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>3065</v>
+        <v>3465</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2586</v>
@@ -14241,10 +15441,10 @@
     </row>
     <row r="70" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>3066</v>
+        <v>3466</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>3067</v>
+        <v>3467</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2590</v>
@@ -14296,10 +15496,10 @@
     </row>
     <row r="71" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>3068</v>
+        <v>3468</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>3069</v>
+        <v>3469</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>400</v>
@@ -14351,10 +15551,10 @@
     </row>
     <row r="72" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>3070</v>
+        <v>3470</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>3071</v>
+        <v>3471</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>543</v>
@@ -14406,10 +15606,10 @@
     </row>
     <row r="73" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>3072</v>
+        <v>3472</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>3073</v>
+        <v>3473</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -14459,10 +15659,10 @@
     </row>
     <row r="74" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>3074</v>
+        <v>3474</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>3075</v>
+        <v>3475</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2603</v>
@@ -14514,10 +15714,10 @@
     </row>
     <row r="75" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>3076</v>
+        <v>3476</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>3077</v>
+        <v>3477</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>543</v>
@@ -14569,10 +15769,10 @@
     </row>
     <row r="76" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>3078</v>
+        <v>3478</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>3079</v>
+        <v>3479</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2614</v>
@@ -14624,10 +15824,10 @@
     </row>
     <row r="77" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>3080</v>
+        <v>3480</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>3081</v>
+        <v>3481</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2421</v>
@@ -14679,10 +15879,10 @@
     </row>
     <row r="78" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>3082</v>
+        <v>3482</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>3083</v>
+        <v>3483</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>216</v>
@@ -14734,10 +15934,10 @@
     </row>
     <row r="79" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>3084</v>
+        <v>3484</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>3085</v>
+        <v>3485</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>216</v>
@@ -14789,10 +15989,10 @@
     </row>
     <row r="80" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>3086</v>
+        <v>3486</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>3087</v>
+        <v>3487</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>306</v>
@@ -14844,10 +16044,10 @@
     </row>
     <row r="81" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>3088</v>
+        <v>3488</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>3089</v>
+        <v>3489</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -14893,10 +16093,10 @@
     </row>
     <row r="82" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>3090</v>
+        <v>3490</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>3091</v>
+        <v>3491</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>306</v>
@@ -14948,10 +16148,10 @@
     </row>
     <row r="83" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>3092</v>
+        <v>3492</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>3093</v>
+        <v>3493</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>2637</v>
@@ -15003,10 +16203,10 @@
     </row>
     <row r="84" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>3094</v>
+        <v>3494</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>3095</v>
+        <v>3495</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>2641</v>
@@ -15058,10 +16258,10 @@
     </row>
     <row r="85" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>3096</v>
+        <v>3496</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>3097</v>
+        <v>3497</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>306</v>
@@ -15113,10 +16313,10 @@
     </row>
     <row r="86" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>3098</v>
+        <v>3498</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>3099</v>
+        <v>3499</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>306</v>
@@ -15168,10 +16368,10 @@
     </row>
     <row r="87" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>3101</v>
+        <v>3501</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>176</v>
@@ -15223,10 +16423,10 @@
     </row>
     <row r="88" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>3102</v>
+        <v>3502</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>3103</v>
+        <v>3503</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>176</v>
@@ -15278,10 +16478,10 @@
     </row>
     <row r="89" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>3104</v>
+        <v>3504</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>3105</v>
+        <v>3505</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>2660</v>
@@ -15333,10 +16533,10 @@
     </row>
     <row r="90" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>3106</v>
+        <v>3506</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>3107</v>
+        <v>3507</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -15384,10 +16584,10 @@
     </row>
     <row r="91" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>3108</v>
+        <v>3508</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>3109</v>
+        <v>3509</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>2670</v>
@@ -15439,10 +16639,10 @@
     </row>
     <row r="92" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>3110</v>
+        <v>3510</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>3111</v>
+        <v>3511</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>2675</v>
@@ -15494,10 +16694,10 @@
     </row>
     <row r="93" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>3112</v>
+        <v>3512</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>3113</v>
+        <v>3513</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>2662</v>
@@ -15549,10 +16749,10 @@
     </row>
     <row r="94" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>3114</v>
+        <v>3514</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>3115</v>
+        <v>3515</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>2682</v>
@@ -15602,10 +16802,10 @@
     </row>
     <row r="95" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>3116</v>
+        <v>3516</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>3117</v>
+        <v>3517</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>2682</v>
@@ -15657,10 +16857,10 @@
     </row>
     <row r="96" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>3118</v>
+        <v>3518</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>3119</v>
+        <v>3519</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>401</v>
@@ -15712,10 +16912,10 @@
     </row>
     <row r="97" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>3120</v>
+        <v>3520</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>3121</v>
+        <v>3521</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>401</v>
@@ -15767,10 +16967,10 @@
     </row>
     <row r="98" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>3122</v>
+        <v>3522</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>3123</v>
+        <v>3523</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>66</v>
@@ -15822,10 +17022,10 @@
     </row>
     <row r="99" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>3124</v>
+        <v>3524</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>3125</v>
+        <v>3525</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>66</v>
@@ -15877,10 +17077,10 @@
     </row>
     <row r="100" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>3126</v>
+        <v>3526</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>3127</v>
+        <v>3527</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>66</v>
@@ -15932,10 +17132,10 @@
     </row>
     <row r="101" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>3128</v>
+        <v>3528</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>3129</v>
+        <v>3529</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>66</v>
@@ -15981,10 +17181,10 @@
     </row>
     <row r="102" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>3130</v>
+        <v>3530</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>3131</v>
+        <v>3531</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>2708</v>
@@ -16036,10 +17236,10 @@
     </row>
     <row r="103" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>3132</v>
+        <v>3532</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>3133</v>
+        <v>3533</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>187</v>
@@ -16091,10 +17291,10 @@
     </row>
     <row r="104" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>3134</v>
+        <v>3534</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>3135</v>
+        <v>3535</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>43</v>
@@ -16146,10 +17346,10 @@
     </row>
     <row r="105" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>3136</v>
+        <v>3536</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>3137</v>
+        <v>3537</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>43</v>
@@ -16199,10 +17399,10 @@
     </row>
     <row r="106" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>3138</v>
+        <v>3538</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>3139</v>
+        <v>3539</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>43</v>

--- a/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
+++ b/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11619" uniqueCount="3540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12219" uniqueCount="4140">
   <si>
     <t xml:space="preserve">Job Catalog Data Import Template   </t>
   </si>
@@ -10780,6 +10780,1806 @@
   </si>
   <si>
     <t>JOU100-20260122170646</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>SE01-20260123140206</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>DA02-20260123140206</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PM03-20260123140206</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>SM04-20260123140206</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>MS05-20260123140206</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>HR06-20260123140206</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>FA07-20260123140206</t>
+  </si>
+  <si>
+    <t>Accountant 20260123140206</t>
+  </si>
+  <si>
+    <t>AC08-20260123140206</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123140206</t>
+  </si>
+  <si>
+    <t>CS09-20260123140206</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>OM10-20260123140206</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>QA11-20260123140206</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>DO12-20260123140206</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>BA13-20260123140206</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PJM14-20260123140206</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>UX15-20260123140206</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>GD16-20260123140206</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123140206</t>
+  </si>
+  <si>
+    <t>CW17-20260123140206</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>NA18-20260123140206</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>DBA19-20260123140206</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>SA20-20260123140206</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>CA21-20260123140206</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123140206</t>
+  </si>
+  <si>
+    <t>LC22-20260123140206</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123140206</t>
+  </si>
+  <si>
+    <t>CO23-20260123140206</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>SCM24-20260123140206</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>LOG25-20260123140206</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>PS26-20260123140206</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>TC27-20260123140206</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>RS28-20260123140206</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>PA29-20260123140206</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123140206</t>
+  </si>
+  <si>
+    <t>EA30-20260123140206</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123140206</t>
+  </si>
+  <si>
+    <t>AA31-20260123140206</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123140206</t>
+  </si>
+  <si>
+    <t>REC32-20260123140206</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123140206</t>
+  </si>
+  <si>
+    <t>SEX33-20260123140206</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>AM34-20260123140206</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>BDM35-20260123140206</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>CSM36-20260123140206</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>TS37-20260123140206</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123140206</t>
+  </si>
+  <si>
+    <t>HD38-20260123140206</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>MM39-20260123140206</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>BM40-20260123140206</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>SMM41-20260123140206</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>SEO42-20260123140206</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PR43-20260123140206</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>COM44-20260123140206</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123140206</t>
+  </si>
+  <si>
+    <t>RES45-20260123140206</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123140206</t>
+  </si>
+  <si>
+    <t>LAB46-20260123140206</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>CRC47-20260123140206</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123140206</t>
+  </si>
+  <si>
+    <t>PH48-20260123140206</t>
+  </si>
+  <si>
+    <t>Nurse 20260123140206</t>
+  </si>
+  <si>
+    <t>NUR49-20260123140206</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123140206</t>
+  </si>
+  <si>
+    <t>MA50-20260123140206</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123140206</t>
+  </si>
+  <si>
+    <t>PT51-20260123140206</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123140206</t>
+  </si>
+  <si>
+    <t>OT52-20260123140206</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123140206</t>
+  </si>
+  <si>
+    <t>RT53-20260123140206</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>CM54-20260123140206</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>CE55-20260123140206</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>ME56-20260123140206</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>EE57-20260123140206</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>MFE58-20260123140206</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123140206</t>
+  </si>
+  <si>
+    <t>PRS59-20260123140206</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>WM60-20260123140206</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>INV61-20260123140206</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123140206</t>
+  </si>
+  <si>
+    <t>MT62-20260123140206</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>FM63-20260123140206</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>EHS64-20260123140206</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123140206</t>
+  </si>
+  <si>
+    <t>SO65-20260123140206</t>
+  </si>
+  <si>
+    <t>Teacher 20260123140206</t>
+  </si>
+  <si>
+    <t>TEA66-20260123140206</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>TRS67-20260123140206</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>ID68-20260123140206</t>
+  </si>
+  <si>
+    <t>Librarian 20260123140206</t>
+  </si>
+  <si>
+    <t>LIB69-20260123140206</t>
+  </si>
+  <si>
+    <t>Architect 20260123140206</t>
+  </si>
+  <si>
+    <t>ARC70-20260123140206</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>IDE71-20260123140206</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123140206</t>
+  </si>
+  <si>
+    <t>REA72-20260123140206</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PRM73-20260123140206</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123140206</t>
+  </si>
+  <si>
+    <t>FIA74-20260123140206</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>IA75-20260123140206</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>CRA76-20260123140206</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>RM77-20260123140206</t>
+  </si>
+  <si>
+    <t>Auditor 20260123140206</t>
+  </si>
+  <si>
+    <t>AUD78-20260123140206</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>TAX79-20260123140206</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>BUA80-20260123140206</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123140206</t>
+  </si>
+  <si>
+    <t>PAR81-20260123140206</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>CTM82-20260123140206</t>
+  </si>
+  <si>
+    <t>Chef 20260123140206</t>
+  </si>
+  <si>
+    <t>CHF83-20260123140206</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>REM84-20260123140206</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>EVC85-20260123140206</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>TRC86-20260123140206</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>HM87-20260123140206</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123140206</t>
+  </si>
+  <si>
+    <t>FA88-20260123140206</t>
+  </si>
+  <si>
+    <t>Pilot 20260123140206</t>
+  </si>
+  <si>
+    <t>PIL89-20260123140206</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123140206</t>
+  </si>
+  <si>
+    <t>TD90-20260123140206</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123140206</t>
+  </si>
+  <si>
+    <t>DD91-20260123140206</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>RSM92-20260123140206</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123140206</t>
+  </si>
+  <si>
+    <t>SAL93-20260123140206</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123140206</t>
+  </si>
+  <si>
+    <t>VM94-20260123140206</t>
+  </si>
+  <si>
+    <t>Buyer 20260123140206</t>
+  </si>
+  <si>
+    <t>BUY95-20260123140206</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>ECM96-20260123140206</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>DMM97-20260123140206</t>
+  </si>
+  <si>
+    <t>Videographer 20260123140206</t>
+  </si>
+  <si>
+    <t>VID98-20260123140206</t>
+  </si>
+  <si>
+    <t>Photographer 20260123140206</t>
+  </si>
+  <si>
+    <t>PHO99-20260123140206</t>
+  </si>
+  <si>
+    <t>Journalist 20260123140206</t>
+  </si>
+  <si>
+    <t>JOU100-20260123140206</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>SE01-20260123161439</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>DA02-20260123161439</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PM03-20260123161439</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>SM04-20260123161439</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>MS05-20260123161439</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>HR06-20260123161439</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>FA07-20260123161439</t>
+  </si>
+  <si>
+    <t>Accountant 20260123161439</t>
+  </si>
+  <si>
+    <t>AC08-20260123161439</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123161439</t>
+  </si>
+  <si>
+    <t>CS09-20260123161439</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>OM10-20260123161439</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>QA11-20260123161439</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>DO12-20260123161439</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>BA13-20260123161439</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PJM14-20260123161439</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>UX15-20260123161439</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>GD16-20260123161439</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123161439</t>
+  </si>
+  <si>
+    <t>CW17-20260123161439</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>NA18-20260123161439</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>DBA19-20260123161439</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>SA20-20260123161439</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>CA21-20260123161439</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123161439</t>
+  </si>
+  <si>
+    <t>LC22-20260123161439</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123161439</t>
+  </si>
+  <si>
+    <t>CO23-20260123161439</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>SCM24-20260123161439</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>LOG25-20260123161439</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>PS26-20260123161439</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>TC27-20260123161439</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>RS28-20260123161439</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>PA29-20260123161439</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123161439</t>
+  </si>
+  <si>
+    <t>EA30-20260123161439</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123161439</t>
+  </si>
+  <si>
+    <t>AA31-20260123161439</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123161439</t>
+  </si>
+  <si>
+    <t>REC32-20260123161439</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123161439</t>
+  </si>
+  <si>
+    <t>SEX33-20260123161439</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>AM34-20260123161439</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>BDM35-20260123161439</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>CSM36-20260123161439</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>TS37-20260123161439</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123161439</t>
+  </si>
+  <si>
+    <t>HD38-20260123161439</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>MM39-20260123161439</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>BM40-20260123161439</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>SMM41-20260123161439</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>SEO42-20260123161439</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PR43-20260123161439</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>COM44-20260123161439</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123161439</t>
+  </si>
+  <si>
+    <t>RES45-20260123161439</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123161439</t>
+  </si>
+  <si>
+    <t>LAB46-20260123161439</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>CRC47-20260123161439</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123161439</t>
+  </si>
+  <si>
+    <t>PH48-20260123161439</t>
+  </si>
+  <si>
+    <t>Nurse 20260123161439</t>
+  </si>
+  <si>
+    <t>NUR49-20260123161439</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123161439</t>
+  </si>
+  <si>
+    <t>MA50-20260123161439</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123161439</t>
+  </si>
+  <si>
+    <t>PT51-20260123161439</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123161439</t>
+  </si>
+  <si>
+    <t>OT52-20260123161439</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123161439</t>
+  </si>
+  <si>
+    <t>RT53-20260123161439</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>CM54-20260123161439</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>CE55-20260123161439</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>ME56-20260123161439</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>EE57-20260123161439</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>MFE58-20260123161439</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123161439</t>
+  </si>
+  <si>
+    <t>PRS59-20260123161439</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>WM60-20260123161439</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>INV61-20260123161439</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123161439</t>
+  </si>
+  <si>
+    <t>MT62-20260123161439</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>FM63-20260123161439</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>EHS64-20260123161439</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123161439</t>
+  </si>
+  <si>
+    <t>SO65-20260123161439</t>
+  </si>
+  <si>
+    <t>Teacher 20260123161439</t>
+  </si>
+  <si>
+    <t>TEA66-20260123161439</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>TRS67-20260123161439</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>ID68-20260123161439</t>
+  </si>
+  <si>
+    <t>Librarian 20260123161439</t>
+  </si>
+  <si>
+    <t>LIB69-20260123161439</t>
+  </si>
+  <si>
+    <t>Architect 20260123161439</t>
+  </si>
+  <si>
+    <t>ARC70-20260123161439</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>IDE71-20260123161439</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123161439</t>
+  </si>
+  <si>
+    <t>REA72-20260123161439</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PRM73-20260123161439</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123161439</t>
+  </si>
+  <si>
+    <t>FIA74-20260123161439</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>IA75-20260123161439</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>CRA76-20260123161439</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>RM77-20260123161439</t>
+  </si>
+  <si>
+    <t>Auditor 20260123161439</t>
+  </si>
+  <si>
+    <t>AUD78-20260123161439</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>TAX79-20260123161439</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>BUA80-20260123161439</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123161439</t>
+  </si>
+  <si>
+    <t>PAR81-20260123161439</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>CTM82-20260123161439</t>
+  </si>
+  <si>
+    <t>Chef 20260123161439</t>
+  </si>
+  <si>
+    <t>CHF83-20260123161439</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>REM84-20260123161439</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>EVC85-20260123161439</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>TRC86-20260123161439</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>HM87-20260123161439</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123161439</t>
+  </si>
+  <si>
+    <t>FA88-20260123161439</t>
+  </si>
+  <si>
+    <t>Pilot 20260123161439</t>
+  </si>
+  <si>
+    <t>PIL89-20260123161439</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123161439</t>
+  </si>
+  <si>
+    <t>TD90-20260123161439</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123161439</t>
+  </si>
+  <si>
+    <t>DD91-20260123161439</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>RSM92-20260123161439</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123161439</t>
+  </si>
+  <si>
+    <t>SAL93-20260123161439</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123161439</t>
+  </si>
+  <si>
+    <t>VM94-20260123161439</t>
+  </si>
+  <si>
+    <t>Buyer 20260123161439</t>
+  </si>
+  <si>
+    <t>BUY95-20260123161439</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>ECM96-20260123161439</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>DMM97-20260123161439</t>
+  </si>
+  <si>
+    <t>Videographer 20260123161439</t>
+  </si>
+  <si>
+    <t>VID98-20260123161439</t>
+  </si>
+  <si>
+    <t>Photographer 20260123161439</t>
+  </si>
+  <si>
+    <t>PHO99-20260123161439</t>
+  </si>
+  <si>
+    <t>Journalist 20260123161439</t>
+  </si>
+  <si>
+    <t>JOU100-20260123161439</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>SE01-20260123162222</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>DA02-20260123162222</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PM03-20260123162222</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>SM04-20260123162222</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>MS05-20260123162222</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>HR06-20260123162222</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>FA07-20260123162222</t>
+  </si>
+  <si>
+    <t>Accountant 20260123162222</t>
+  </si>
+  <si>
+    <t>AC08-20260123162222</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123162222</t>
+  </si>
+  <si>
+    <t>CS09-20260123162222</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>OM10-20260123162222</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>QA11-20260123162222</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>DO12-20260123162222</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>BA13-20260123162222</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PJM14-20260123162222</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>UX15-20260123162222</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>GD16-20260123162222</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123162222</t>
+  </si>
+  <si>
+    <t>CW17-20260123162222</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>NA18-20260123162222</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>DBA19-20260123162222</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>SA20-20260123162222</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>CA21-20260123162222</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123162222</t>
+  </si>
+  <si>
+    <t>LC22-20260123162222</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123162222</t>
+  </si>
+  <si>
+    <t>CO23-20260123162222</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>SCM24-20260123162222</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>LOG25-20260123162222</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>PS26-20260123162222</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>TC27-20260123162222</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>RS28-20260123162222</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>PA29-20260123162222</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123162222</t>
+  </si>
+  <si>
+    <t>EA30-20260123162222</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123162222</t>
+  </si>
+  <si>
+    <t>AA31-20260123162222</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123162222</t>
+  </si>
+  <si>
+    <t>REC32-20260123162222</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123162222</t>
+  </si>
+  <si>
+    <t>SEX33-20260123162222</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>AM34-20260123162222</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>BDM35-20260123162222</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>CSM36-20260123162222</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>TS37-20260123162222</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123162222</t>
+  </si>
+  <si>
+    <t>HD38-20260123162222</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>MM39-20260123162222</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>BM40-20260123162222</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>SMM41-20260123162222</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>SEO42-20260123162222</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PR43-20260123162222</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>COM44-20260123162222</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123162222</t>
+  </si>
+  <si>
+    <t>RES45-20260123162222</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123162222</t>
+  </si>
+  <si>
+    <t>LAB46-20260123162222</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>CRC47-20260123162222</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123162222</t>
+  </si>
+  <si>
+    <t>PH48-20260123162222</t>
+  </si>
+  <si>
+    <t>Nurse 20260123162222</t>
+  </si>
+  <si>
+    <t>NUR49-20260123162222</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123162222</t>
+  </si>
+  <si>
+    <t>MA50-20260123162222</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123162222</t>
+  </si>
+  <si>
+    <t>PT51-20260123162222</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123162222</t>
+  </si>
+  <si>
+    <t>OT52-20260123162222</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123162222</t>
+  </si>
+  <si>
+    <t>RT53-20260123162222</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>CM54-20260123162222</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>CE55-20260123162222</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>ME56-20260123162222</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>EE57-20260123162222</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>MFE58-20260123162222</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123162222</t>
+  </si>
+  <si>
+    <t>PRS59-20260123162222</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>WM60-20260123162222</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>INV61-20260123162222</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123162222</t>
+  </si>
+  <si>
+    <t>MT62-20260123162222</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>FM63-20260123162222</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>EHS64-20260123162222</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123162222</t>
+  </si>
+  <si>
+    <t>SO65-20260123162222</t>
+  </si>
+  <si>
+    <t>Teacher 20260123162222</t>
+  </si>
+  <si>
+    <t>TEA66-20260123162222</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>TRS67-20260123162222</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>ID68-20260123162222</t>
+  </si>
+  <si>
+    <t>Librarian 20260123162222</t>
+  </si>
+  <si>
+    <t>LIB69-20260123162222</t>
+  </si>
+  <si>
+    <t>Architect 20260123162222</t>
+  </si>
+  <si>
+    <t>ARC70-20260123162222</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>IDE71-20260123162222</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123162222</t>
+  </si>
+  <si>
+    <t>REA72-20260123162222</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PRM73-20260123162222</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123162222</t>
+  </si>
+  <si>
+    <t>FIA74-20260123162222</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>IA75-20260123162222</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>CRA76-20260123162222</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>RM77-20260123162222</t>
+  </si>
+  <si>
+    <t>Auditor 20260123162222</t>
+  </si>
+  <si>
+    <t>AUD78-20260123162222</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>TAX79-20260123162222</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>BUA80-20260123162222</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123162222</t>
+  </si>
+  <si>
+    <t>PAR81-20260123162222</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>CTM82-20260123162222</t>
+  </si>
+  <si>
+    <t>Chef 20260123162222</t>
+  </si>
+  <si>
+    <t>CHF83-20260123162222</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>REM84-20260123162222</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>EVC85-20260123162222</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>TRC86-20260123162222</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>HM87-20260123162222</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123162222</t>
+  </si>
+  <si>
+    <t>FA88-20260123162222</t>
+  </si>
+  <si>
+    <t>Pilot 20260123162222</t>
+  </si>
+  <si>
+    <t>PIL89-20260123162222</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123162222</t>
+  </si>
+  <si>
+    <t>TD90-20260123162222</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123162222</t>
+  </si>
+  <si>
+    <t>DD91-20260123162222</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>RSM92-20260123162222</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123162222</t>
+  </si>
+  <si>
+    <t>SAL93-20260123162222</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123162222</t>
+  </si>
+  <si>
+    <t>VM94-20260123162222</t>
+  </si>
+  <si>
+    <t>Buyer 20260123162222</t>
+  </si>
+  <si>
+    <t>BUY95-20260123162222</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>ECM96-20260123162222</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>DMM97-20260123162222</t>
+  </si>
+  <si>
+    <t>Videographer 20260123162222</t>
+  </si>
+  <si>
+    <t>VID98-20260123162222</t>
+  </si>
+  <si>
+    <t>Photographer 20260123162222</t>
+  </si>
+  <si>
+    <t>PHO99-20260123162222</t>
+  </si>
+  <si>
+    <t>Journalist 20260123162222</t>
+  </si>
+  <si>
+    <t>JOU100-20260123162222</t>
   </si>
 </sst>
 </file>
@@ -12036,10 +13836,10 @@
     </row>
     <row r="7" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>3340</v>
+        <v>3940</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3341</v>
+        <v>3941</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>134</v>
@@ -12091,10 +13891,10 @@
     </row>
     <row r="8" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>3342</v>
+        <v>3942</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3343</v>
+        <v>3943</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2375</v>
@@ -12146,10 +13946,10 @@
     </row>
     <row r="9" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>3344</v>
+        <v>3944</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3345</v>
+        <v>3945</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2380</v>
@@ -12199,10 +13999,10 @@
     </row>
     <row r="10" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>3346</v>
+        <v>3946</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3347</v>
+        <v>3947</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>220</v>
@@ -12250,10 +14050,10 @@
     </row>
     <row r="11" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>3348</v>
+        <v>3948</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3349</v>
+        <v>3949</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>187</v>
@@ -12305,10 +14105,10 @@
     </row>
     <row r="12" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>3350</v>
+        <v>3950</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3351</v>
+        <v>3951</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1106</v>
@@ -12360,10 +14160,10 @@
     </row>
     <row r="13" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>3352</v>
+        <v>3952</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3353</v>
+        <v>3953</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>306</v>
@@ -12415,10 +14215,10 @@
     </row>
     <row r="14" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>3354</v>
+        <v>3954</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3355</v>
+        <v>3955</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>306</v>
@@ -12470,10 +14270,10 @@
     </row>
     <row r="15" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>3356</v>
+        <v>3956</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3357</v>
+        <v>3957</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>130</v>
@@ -12523,10 +14323,10 @@
     </row>
     <row r="16" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>3358</v>
+        <v>3958</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3359</v>
+        <v>3959</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2402</v>
@@ -12578,10 +14378,10 @@
     </row>
     <row r="17" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>3360</v>
+        <v>3960</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3361</v>
+        <v>3961</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>134</v>
@@ -12627,10 +14427,10 @@
     </row>
     <row r="18" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>3362</v>
+        <v>3962</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3363</v>
+        <v>3963</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>134</v>
@@ -12682,10 +14482,10 @@
     </row>
     <row r="19" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>3364</v>
+        <v>3964</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3365</v>
+        <v>3965</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2375</v>
@@ -12737,10 +14537,10 @@
     </row>
     <row r="20" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>3366</v>
+        <v>3966</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3367</v>
+        <v>3967</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2417</v>
@@ -12792,10 +14592,10 @@
     </row>
     <row r="21" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>3368</v>
+        <v>3968</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3369</v>
+        <v>3969</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2421</v>
@@ -12847,10 +14647,10 @@
     </row>
     <row r="22" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>3370</v>
+        <v>3970</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3371</v>
+        <v>3971</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2421</v>
@@ -12898,10 +14698,10 @@
     </row>
     <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>3372</v>
+        <v>3972</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3373</v>
+        <v>3973</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>187</v>
@@ -12953,10 +14753,10 @@
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>3374</v>
+        <v>3974</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>3375</v>
+        <v>3975</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>1124</v>
@@ -13008,10 +14808,10 @@
     </row>
     <row r="25" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>3376</v>
+        <v>3976</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3377</v>
+        <v>3977</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1124</v>
@@ -13055,10 +14855,10 @@
     </row>
     <row r="26" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>3378</v>
+        <v>3978</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3379</v>
+        <v>3979</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1124</v>
@@ -13110,10 +14910,10 @@
     </row>
     <row r="27" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>3380</v>
+        <v>3980</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3381</v>
+        <v>3981</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>1124</v>
@@ -13165,10 +14965,10 @@
     </row>
     <row r="28" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>3382</v>
+        <v>3982</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3383</v>
+        <v>3983</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>176</v>
@@ -13220,10 +15020,10 @@
     </row>
     <row r="29" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>3384</v>
+        <v>3984</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3385</v>
+        <v>3985</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2452</v>
@@ -13275,10 +15075,10 @@
     </row>
     <row r="30" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>3386</v>
+        <v>3986</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>3387</v>
+        <v>3987</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2456</v>
@@ -13328,10 +15128,10 @@
     </row>
     <row r="31" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>3388</v>
+        <v>3988</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3389</v>
+        <v>3989</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2460</v>
@@ -13383,10 +15183,10 @@
     </row>
     <row r="32" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>3390</v>
+        <v>3990</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>3391</v>
+        <v>3991</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2464</v>
@@ -13438,10 +15238,10 @@
     </row>
     <row r="33" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>3392</v>
+        <v>3992</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>3393</v>
+        <v>3993</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>1106</v>
@@ -13493,10 +15293,10 @@
     </row>
     <row r="34" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>3394</v>
+        <v>3994</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>3395</v>
+        <v>3995</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1106</v>
@@ -13548,10 +15348,10 @@
     </row>
     <row r="35" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>3396</v>
+        <v>3996</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3397</v>
+        <v>3997</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1106</v>
@@ -13603,10 +15403,10 @@
     </row>
     <row r="36" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>3398</v>
+        <v>3998</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2479</v>
@@ -13658,10 +15458,10 @@
     </row>
     <row r="37" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3401</v>
+        <v>4001</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2479</v>
@@ -13711,10 +15511,10 @@
     </row>
     <row r="38" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>3402</v>
+        <v>4002</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>3403</v>
+        <v>4003</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2479</v>
@@ -13766,10 +15566,10 @@
     </row>
     <row r="39" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>3404</v>
+        <v>4004</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>3405</v>
+        <v>4005</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>220</v>
@@ -13821,10 +15621,10 @@
     </row>
     <row r="40" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>3406</v>
+        <v>4006</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3407</v>
+        <v>4007</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>220</v>
@@ -13876,10 +15676,10 @@
     </row>
     <row r="41" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>3408</v>
+        <v>4008</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3409</v>
+        <v>4009</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>220</v>
@@ -13931,10 +15731,10 @@
     </row>
     <row r="42" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>3410</v>
+        <v>4010</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3411</v>
+        <v>4011</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>130</v>
@@ -13984,10 +15784,10 @@
     </row>
     <row r="43" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>3412</v>
+        <v>4012</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3413</v>
+        <v>4013</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2502</v>
@@ -14039,10 +15839,10 @@
     </row>
     <row r="44" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>3414</v>
+        <v>4014</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>3415</v>
+        <v>4015</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2502</v>
@@ -14094,10 +15894,10 @@
     </row>
     <row r="45" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>3416</v>
+        <v>4016</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3417</v>
+        <v>4017</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>187</v>
@@ -14149,10 +15949,10 @@
     </row>
     <row r="46" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>3418</v>
+        <v>4018</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>3419</v>
+        <v>4019</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>187</v>
@@ -14204,10 +16004,10 @@
     </row>
     <row r="47" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>3420</v>
+        <v>4020</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3421</v>
+        <v>4021</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>187</v>
@@ -14259,10 +16059,10 @@
     </row>
     <row r="48" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>3422</v>
+        <v>4022</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>3423</v>
+        <v>4023</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>187</v>
@@ -14312,10 +16112,10 @@
     </row>
     <row r="49" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>3424</v>
+        <v>4024</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>3425</v>
+        <v>4025</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>30</v>
@@ -14367,10 +16167,10 @@
     </row>
     <row r="50" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>3426</v>
+        <v>4026</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>3427</v>
+        <v>4027</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -14422,10 +16222,10 @@
     </row>
     <row r="51" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>3428</v>
+        <v>4028</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>3429</v>
+        <v>4029</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>422</v>
@@ -14477,10 +16277,10 @@
     </row>
     <row r="52" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>3430</v>
+        <v>4030</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>3431</v>
+        <v>4031</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>422</v>
@@ -14532,10 +16332,10 @@
     </row>
     <row r="53" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>3432</v>
+        <v>4032</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>3433</v>
+        <v>4033</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>422</v>
@@ -14587,10 +16387,10 @@
     </row>
     <row r="54" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>3434</v>
+        <v>4034</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>3435</v>
+        <v>4035</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -14630,10 +16430,10 @@
     </row>
     <row r="55" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>3436</v>
+        <v>4036</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>3437</v>
+        <v>4037</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>2531</v>
@@ -14685,10 +16485,10 @@
     </row>
     <row r="56" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>3438</v>
+        <v>4038</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>3439</v>
+        <v>4039</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2531</v>
@@ -14740,10 +16540,10 @@
     </row>
     <row r="57" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>3440</v>
+        <v>4040</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>3441</v>
+        <v>4041</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2531</v>
@@ -14795,10 +16595,10 @@
     </row>
     <row r="58" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>3442</v>
+        <v>4042</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>3443</v>
+        <v>4043</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2531</v>
@@ -14850,10 +16650,10 @@
     </row>
     <row r="59" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>3444</v>
+        <v>4044</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>3445</v>
+        <v>4045</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
@@ -14901,10 +16701,10 @@
     </row>
     <row r="60" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>3446</v>
+        <v>4046</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>3447</v>
+        <v>4047</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>727</v>
@@ -14956,10 +16756,10 @@
     </row>
     <row r="61" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>3448</v>
+        <v>4048</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>3449</v>
+        <v>4049</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>134</v>
@@ -15011,10 +16811,10 @@
     </row>
     <row r="62" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>3450</v>
+        <v>4050</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>3451</v>
+        <v>4051</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>134</v>
@@ -15066,10 +16866,10 @@
     </row>
     <row r="63" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>3452</v>
+        <v>4052</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>3453</v>
+        <v>4053</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>134</v>
@@ -15117,10 +16917,10 @@
     </row>
     <row r="64" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>3454</v>
+        <v>4054</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>3455</v>
+        <v>4055</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
@@ -15168,10 +16968,10 @@
     </row>
     <row r="65" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>3456</v>
+        <v>4056</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>3457</v>
+        <v>4057</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>204</v>
@@ -15223,10 +17023,10 @@
     </row>
     <row r="66" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>3458</v>
+        <v>4058</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>3459</v>
+        <v>4059</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2572</v>
@@ -15278,10 +17078,10 @@
     </row>
     <row r="67" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>3460</v>
+        <v>4060</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>3461</v>
+        <v>4061</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2577</v>
@@ -15333,10 +17133,10 @@
     </row>
     <row r="68" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>3462</v>
+        <v>4062</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>3463</v>
+        <v>4063</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>562</v>
@@ -15388,10 +17188,10 @@
     </row>
     <row r="69" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>3464</v>
+        <v>4064</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>3465</v>
+        <v>4065</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2586</v>
@@ -15441,10 +17241,10 @@
     </row>
     <row r="70" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>3466</v>
+        <v>4066</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>3467</v>
+        <v>4067</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2590</v>
@@ -15496,10 +17296,10 @@
     </row>
     <row r="71" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>3468</v>
+        <v>4068</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>3469</v>
+        <v>4069</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>400</v>
@@ -15551,10 +17351,10 @@
     </row>
     <row r="72" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>3470</v>
+        <v>4070</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>3471</v>
+        <v>4071</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>543</v>
@@ -15606,10 +17406,10 @@
     </row>
     <row r="73" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>3472</v>
+        <v>4072</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>3473</v>
+        <v>4073</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -15659,10 +17459,10 @@
     </row>
     <row r="74" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>3474</v>
+        <v>4074</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>3475</v>
+        <v>4075</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2603</v>
@@ -15714,10 +17514,10 @@
     </row>
     <row r="75" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>3476</v>
+        <v>4076</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>3477</v>
+        <v>4077</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>543</v>
@@ -15769,10 +17569,10 @@
     </row>
     <row r="76" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>3478</v>
+        <v>4078</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>3479</v>
+        <v>4079</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2614</v>
@@ -15824,10 +17624,10 @@
     </row>
     <row r="77" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>3480</v>
+        <v>4080</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>3481</v>
+        <v>4081</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2421</v>
@@ -15879,10 +17679,10 @@
     </row>
     <row r="78" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>3482</v>
+        <v>4082</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>3483</v>
+        <v>4083</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>216</v>
@@ -15934,10 +17734,10 @@
     </row>
     <row r="79" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>3484</v>
+        <v>4084</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>3485</v>
+        <v>4085</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>216</v>
@@ -15989,10 +17789,10 @@
     </row>
     <row r="80" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>3486</v>
+        <v>4086</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>3487</v>
+        <v>4087</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>306</v>
@@ -16044,10 +17844,10 @@
     </row>
     <row r="81" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>3488</v>
+        <v>4088</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>3489</v>
+        <v>4089</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -16093,10 +17893,10 @@
     </row>
     <row r="82" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>3490</v>
+        <v>4090</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>3491</v>
+        <v>4091</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>306</v>
@@ -16148,10 +17948,10 @@
     </row>
     <row r="83" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>3492</v>
+        <v>4092</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>3493</v>
+        <v>4093</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>2637</v>
@@ -16203,10 +18003,10 @@
     </row>
     <row r="84" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>3494</v>
+        <v>4094</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>3495</v>
+        <v>4095</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>2641</v>
@@ -16258,10 +18058,10 @@
     </row>
     <row r="85" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>3496</v>
+        <v>4096</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>3497</v>
+        <v>4097</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>306</v>
@@ -16313,10 +18113,10 @@
     </row>
     <row r="86" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>3498</v>
+        <v>4098</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>3499</v>
+        <v>4099</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>306</v>
@@ -16368,10 +18168,10 @@
     </row>
     <row r="87" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>3501</v>
+        <v>4101</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>176</v>
@@ -16423,10 +18223,10 @@
     </row>
     <row r="88" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>3502</v>
+        <v>4102</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>3503</v>
+        <v>4103</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>176</v>
@@ -16478,10 +18278,10 @@
     </row>
     <row r="89" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>3504</v>
+        <v>4104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>3505</v>
+        <v>4105</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>2660</v>
@@ -16533,10 +18333,10 @@
     </row>
     <row r="90" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>3506</v>
+        <v>4106</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>3507</v>
+        <v>4107</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -16584,10 +18384,10 @@
     </row>
     <row r="91" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>3508</v>
+        <v>4108</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>3509</v>
+        <v>4109</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>2670</v>
@@ -16639,10 +18439,10 @@
     </row>
     <row r="92" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>3510</v>
+        <v>4110</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>3511</v>
+        <v>4111</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>2675</v>
@@ -16694,10 +18494,10 @@
     </row>
     <row r="93" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>3512</v>
+        <v>4112</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>3513</v>
+        <v>4113</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>2662</v>
@@ -16749,10 +18549,10 @@
     </row>
     <row r="94" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>3514</v>
+        <v>4114</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>3515</v>
+        <v>4115</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>2682</v>
@@ -16802,10 +18602,10 @@
     </row>
     <row r="95" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>3516</v>
+        <v>4116</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>3517</v>
+        <v>4117</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>2682</v>
@@ -16857,10 +18657,10 @@
     </row>
     <row r="96" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>3518</v>
+        <v>4118</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>3519</v>
+        <v>4119</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>401</v>
@@ -16912,10 +18712,10 @@
     </row>
     <row r="97" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>3520</v>
+        <v>4120</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>3521</v>
+        <v>4121</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>401</v>
@@ -16967,10 +18767,10 @@
     </row>
     <row r="98" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>3522</v>
+        <v>4122</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>3523</v>
+        <v>4123</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>66</v>
@@ -17022,10 +18822,10 @@
     </row>
     <row r="99" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>3524</v>
+        <v>4124</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>3525</v>
+        <v>4125</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>66</v>
@@ -17077,10 +18877,10 @@
     </row>
     <row r="100" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>3526</v>
+        <v>4126</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>3527</v>
+        <v>4127</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>66</v>
@@ -17132,10 +18932,10 @@
     </row>
     <row r="101" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>3528</v>
+        <v>4128</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>3529</v>
+        <v>4129</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>66</v>
@@ -17181,10 +18981,10 @@
     </row>
     <row r="102" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>3530</v>
+        <v>4130</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>3531</v>
+        <v>4131</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>2708</v>
@@ -17236,10 +19036,10 @@
     </row>
     <row r="103" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>3532</v>
+        <v>4132</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>3533</v>
+        <v>4133</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>187</v>
@@ -17291,10 +19091,10 @@
     </row>
     <row r="104" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>3534</v>
+        <v>4134</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>3535</v>
+        <v>4135</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>43</v>
@@ -17346,10 +19146,10 @@
     </row>
     <row r="105" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>3536</v>
+        <v>4136</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>3537</v>
+        <v>4137</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>43</v>
@@ -17399,10 +19199,10 @@
     </row>
     <row r="106" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>3538</v>
+        <v>4138</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>3539</v>
+        <v>4139</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>43</v>

--- a/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
+++ b/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12219" uniqueCount="4140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12419" uniqueCount="4340">
   <si>
     <t xml:space="preserve">Job Catalog Data Import Template   </t>
   </si>
@@ -12580,6 +12580,606 @@
   </si>
   <si>
     <t>JOU100-20260123162222</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>SE01-20260123164411</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>DA02-20260123164411</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PM03-20260123164411</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>SM04-20260123164411</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>MS05-20260123164411</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>HR06-20260123164411</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>FA07-20260123164411</t>
+  </si>
+  <si>
+    <t>Accountant 20260123164411</t>
+  </si>
+  <si>
+    <t>AC08-20260123164411</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123164411</t>
+  </si>
+  <si>
+    <t>CS09-20260123164411</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>OM10-20260123164411</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>QA11-20260123164411</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>DO12-20260123164411</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>BA13-20260123164411</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PJM14-20260123164411</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>UX15-20260123164411</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>GD16-20260123164411</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123164411</t>
+  </si>
+  <si>
+    <t>CW17-20260123164411</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>NA18-20260123164411</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>DBA19-20260123164411</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>SA20-20260123164411</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>CA21-20260123164411</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123164411</t>
+  </si>
+  <si>
+    <t>LC22-20260123164411</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123164411</t>
+  </si>
+  <si>
+    <t>CO23-20260123164411</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>SCM24-20260123164411</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>LOG25-20260123164411</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>PS26-20260123164411</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>TC27-20260123164411</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>RS28-20260123164411</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>PA29-20260123164411</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123164411</t>
+  </si>
+  <si>
+    <t>EA30-20260123164411</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123164411</t>
+  </si>
+  <si>
+    <t>AA31-20260123164411</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123164411</t>
+  </si>
+  <si>
+    <t>REC32-20260123164411</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123164411</t>
+  </si>
+  <si>
+    <t>SEX33-20260123164411</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>AM34-20260123164411</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>BDM35-20260123164411</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>CSM36-20260123164411</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>TS37-20260123164411</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123164411</t>
+  </si>
+  <si>
+    <t>HD38-20260123164411</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>MM39-20260123164411</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>BM40-20260123164411</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>SMM41-20260123164411</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>SEO42-20260123164411</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PR43-20260123164411</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>COM44-20260123164411</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123164411</t>
+  </si>
+  <si>
+    <t>RES45-20260123164411</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123164411</t>
+  </si>
+  <si>
+    <t>LAB46-20260123164411</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>CRC47-20260123164411</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123164411</t>
+  </si>
+  <si>
+    <t>PH48-20260123164411</t>
+  </si>
+  <si>
+    <t>Nurse 20260123164411</t>
+  </si>
+  <si>
+    <t>NUR49-20260123164411</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123164411</t>
+  </si>
+  <si>
+    <t>MA50-20260123164411</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123164411</t>
+  </si>
+  <si>
+    <t>PT51-20260123164411</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123164411</t>
+  </si>
+  <si>
+    <t>OT52-20260123164411</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123164411</t>
+  </si>
+  <si>
+    <t>RT53-20260123164411</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>CM54-20260123164411</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>CE55-20260123164411</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>ME56-20260123164411</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>EE57-20260123164411</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>MFE58-20260123164411</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123164411</t>
+  </si>
+  <si>
+    <t>PRS59-20260123164411</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>WM60-20260123164411</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>INV61-20260123164411</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123164411</t>
+  </si>
+  <si>
+    <t>MT62-20260123164411</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>FM63-20260123164411</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>EHS64-20260123164411</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123164411</t>
+  </si>
+  <si>
+    <t>SO65-20260123164411</t>
+  </si>
+  <si>
+    <t>Teacher 20260123164411</t>
+  </si>
+  <si>
+    <t>TEA66-20260123164411</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>TRS67-20260123164411</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>ID68-20260123164411</t>
+  </si>
+  <si>
+    <t>Librarian 20260123164411</t>
+  </si>
+  <si>
+    <t>LIB69-20260123164411</t>
+  </si>
+  <si>
+    <t>Architect 20260123164411</t>
+  </si>
+  <si>
+    <t>ARC70-20260123164411</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>IDE71-20260123164411</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123164411</t>
+  </si>
+  <si>
+    <t>REA72-20260123164411</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PRM73-20260123164411</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123164411</t>
+  </si>
+  <si>
+    <t>FIA74-20260123164411</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>IA75-20260123164411</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>CRA76-20260123164411</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>RM77-20260123164411</t>
+  </si>
+  <si>
+    <t>Auditor 20260123164411</t>
+  </si>
+  <si>
+    <t>AUD78-20260123164411</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>TAX79-20260123164411</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>BUA80-20260123164411</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123164411</t>
+  </si>
+  <si>
+    <t>PAR81-20260123164411</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>CTM82-20260123164411</t>
+  </si>
+  <si>
+    <t>Chef 20260123164411</t>
+  </si>
+  <si>
+    <t>CHF83-20260123164411</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>REM84-20260123164411</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>EVC85-20260123164411</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>TRC86-20260123164411</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>HM87-20260123164411</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123164411</t>
+  </si>
+  <si>
+    <t>FA88-20260123164411</t>
+  </si>
+  <si>
+    <t>Pilot 20260123164411</t>
+  </si>
+  <si>
+    <t>PIL89-20260123164411</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123164411</t>
+  </si>
+  <si>
+    <t>TD90-20260123164411</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123164411</t>
+  </si>
+  <si>
+    <t>DD91-20260123164411</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>RSM92-20260123164411</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123164411</t>
+  </si>
+  <si>
+    <t>SAL93-20260123164411</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123164411</t>
+  </si>
+  <si>
+    <t>VM94-20260123164411</t>
+  </si>
+  <si>
+    <t>Buyer 20260123164411</t>
+  </si>
+  <si>
+    <t>BUY95-20260123164411</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>ECM96-20260123164411</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>DMM97-20260123164411</t>
+  </si>
+  <si>
+    <t>Videographer 20260123164411</t>
+  </si>
+  <si>
+    <t>VID98-20260123164411</t>
+  </si>
+  <si>
+    <t>Photographer 20260123164411</t>
+  </si>
+  <si>
+    <t>PHO99-20260123164411</t>
+  </si>
+  <si>
+    <t>Journalist 20260123164411</t>
+  </si>
+  <si>
+    <t>JOU100-20260123164411</t>
   </si>
 </sst>
 </file>
@@ -13836,10 +14436,10 @@
     </row>
     <row r="7" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>3940</v>
+        <v>4140</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3941</v>
+        <v>4141</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>134</v>
@@ -13891,10 +14491,10 @@
     </row>
     <row r="8" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>3942</v>
+        <v>4142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3943</v>
+        <v>4143</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2375</v>
@@ -13946,10 +14546,10 @@
     </row>
     <row r="9" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>3944</v>
+        <v>4144</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3945</v>
+        <v>4145</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2380</v>
@@ -13999,10 +14599,10 @@
     </row>
     <row r="10" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>3946</v>
+        <v>4146</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3947</v>
+        <v>4147</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>220</v>
@@ -14050,10 +14650,10 @@
     </row>
     <row r="11" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>3948</v>
+        <v>4148</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3949</v>
+        <v>4149</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>187</v>
@@ -14105,10 +14705,10 @@
     </row>
     <row r="12" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3951</v>
+        <v>4151</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1106</v>
@@ -14160,10 +14760,10 @@
     </row>
     <row r="13" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>3952</v>
+        <v>4152</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3953</v>
+        <v>4153</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>306</v>
@@ -14215,10 +14815,10 @@
     </row>
     <row r="14" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>3954</v>
+        <v>4154</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3955</v>
+        <v>4155</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>306</v>
@@ -14270,10 +14870,10 @@
     </row>
     <row r="15" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>3956</v>
+        <v>4156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3957</v>
+        <v>4157</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>130</v>
@@ -14323,10 +14923,10 @@
     </row>
     <row r="16" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>3958</v>
+        <v>4158</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3959</v>
+        <v>4159</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2402</v>
@@ -14378,10 +14978,10 @@
     </row>
     <row r="17" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>3960</v>
+        <v>4160</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3961</v>
+        <v>4161</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>134</v>
@@ -14427,10 +15027,10 @@
     </row>
     <row r="18" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>3962</v>
+        <v>4162</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3963</v>
+        <v>4163</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>134</v>
@@ -14482,10 +15082,10 @@
     </row>
     <row r="19" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>3964</v>
+        <v>4164</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3965</v>
+        <v>4165</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2375</v>
@@ -14537,10 +15137,10 @@
     </row>
     <row r="20" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>3966</v>
+        <v>4166</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3967</v>
+        <v>4167</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2417</v>
@@ -14592,10 +15192,10 @@
     </row>
     <row r="21" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>3968</v>
+        <v>4168</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3969</v>
+        <v>4169</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2421</v>
@@ -14647,10 +15247,10 @@
     </row>
     <row r="22" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>3970</v>
+        <v>4170</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3971</v>
+        <v>4171</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2421</v>
@@ -14698,10 +15298,10 @@
     </row>
     <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>3972</v>
+        <v>4172</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3973</v>
+        <v>4173</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>187</v>
@@ -14753,10 +15353,10 @@
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>3974</v>
+        <v>4174</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>3975</v>
+        <v>4175</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>1124</v>
@@ -14808,10 +15408,10 @@
     </row>
     <row r="25" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>3976</v>
+        <v>4176</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3977</v>
+        <v>4177</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1124</v>
@@ -14855,10 +15455,10 @@
     </row>
     <row r="26" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>3978</v>
+        <v>4178</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3979</v>
+        <v>4179</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1124</v>
@@ -14910,10 +15510,10 @@
     </row>
     <row r="27" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3981</v>
+        <v>4181</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>1124</v>
@@ -14965,10 +15565,10 @@
     </row>
     <row r="28" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>3982</v>
+        <v>4182</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3983</v>
+        <v>4183</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>176</v>
@@ -15020,10 +15620,10 @@
     </row>
     <row r="29" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>3984</v>
+        <v>4184</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3985</v>
+        <v>4185</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2452</v>
@@ -15075,10 +15675,10 @@
     </row>
     <row r="30" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>3986</v>
+        <v>4186</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>3987</v>
+        <v>4187</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2456</v>
@@ -15128,10 +15728,10 @@
     </row>
     <row r="31" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>3988</v>
+        <v>4188</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3989</v>
+        <v>4189</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2460</v>
@@ -15183,10 +15783,10 @@
     </row>
     <row r="32" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>3990</v>
+        <v>4190</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>3991</v>
+        <v>4191</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2464</v>
@@ -15238,10 +15838,10 @@
     </row>
     <row r="33" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>3992</v>
+        <v>4192</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>3993</v>
+        <v>4193</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>1106</v>
@@ -15293,10 +15893,10 @@
     </row>
     <row r="34" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>3994</v>
+        <v>4194</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>3995</v>
+        <v>4195</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1106</v>
@@ -15348,10 +15948,10 @@
     </row>
     <row r="35" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>3996</v>
+        <v>4196</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3997</v>
+        <v>4197</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1106</v>
@@ -15403,10 +16003,10 @@
     </row>
     <row r="36" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>3998</v>
+        <v>4198</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>3999</v>
+        <v>4199</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2479</v>
@@ -15458,10 +16058,10 @@
     </row>
     <row r="37" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2479</v>
@@ -15511,10 +16111,10 @@
     </row>
     <row r="38" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>4002</v>
+        <v>4202</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4003</v>
+        <v>4203</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2479</v>
@@ -15566,10 +16166,10 @@
     </row>
     <row r="39" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>4004</v>
+        <v>4204</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4005</v>
+        <v>4205</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>220</v>
@@ -15621,10 +16221,10 @@
     </row>
     <row r="40" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>4006</v>
+        <v>4206</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>4007</v>
+        <v>4207</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>220</v>
@@ -15676,10 +16276,10 @@
     </row>
     <row r="41" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>4008</v>
+        <v>4208</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>4009</v>
+        <v>4209</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>220</v>
@@ -15731,10 +16331,10 @@
     </row>
     <row r="42" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>4010</v>
+        <v>4210</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>4011</v>
+        <v>4211</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>130</v>
@@ -15784,10 +16384,10 @@
     </row>
     <row r="43" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>4012</v>
+        <v>4212</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>4013</v>
+        <v>4213</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2502</v>
@@ -15839,10 +16439,10 @@
     </row>
     <row r="44" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>4014</v>
+        <v>4214</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>4015</v>
+        <v>4215</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2502</v>
@@ -15894,10 +16494,10 @@
     </row>
     <row r="45" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>4016</v>
+        <v>4216</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4017</v>
+        <v>4217</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>187</v>
@@ -15949,10 +16549,10 @@
     </row>
     <row r="46" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>4018</v>
+        <v>4218</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4019</v>
+        <v>4219</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>187</v>
@@ -16004,10 +16604,10 @@
     </row>
     <row r="47" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>4020</v>
+        <v>4220</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>4021</v>
+        <v>4221</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>187</v>
@@ -16059,10 +16659,10 @@
     </row>
     <row r="48" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>4022</v>
+        <v>4222</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>4023</v>
+        <v>4223</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>187</v>
@@ -16112,10 +16712,10 @@
     </row>
     <row r="49" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>4024</v>
+        <v>4224</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4025</v>
+        <v>4225</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>30</v>
@@ -16167,10 +16767,10 @@
     </row>
     <row r="50" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>4026</v>
+        <v>4226</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>4027</v>
+        <v>4227</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -16222,10 +16822,10 @@
     </row>
     <row r="51" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>4028</v>
+        <v>4228</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>4029</v>
+        <v>4229</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>422</v>
@@ -16277,10 +16877,10 @@
     </row>
     <row r="52" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>4030</v>
+        <v>4230</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>4031</v>
+        <v>4231</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>422</v>
@@ -16332,10 +16932,10 @@
     </row>
     <row r="53" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>4032</v>
+        <v>4232</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>4033</v>
+        <v>4233</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>422</v>
@@ -16387,10 +16987,10 @@
     </row>
     <row r="54" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>4034</v>
+        <v>4234</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>4035</v>
+        <v>4235</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -16430,10 +17030,10 @@
     </row>
     <row r="55" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>4036</v>
+        <v>4236</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>4037</v>
+        <v>4237</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>2531</v>
@@ -16485,10 +17085,10 @@
     </row>
     <row r="56" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>4038</v>
+        <v>4238</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>4039</v>
+        <v>4239</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2531</v>
@@ -16540,10 +17140,10 @@
     </row>
     <row r="57" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>4040</v>
+        <v>4240</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>4041</v>
+        <v>4241</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2531</v>
@@ -16595,10 +17195,10 @@
     </row>
     <row r="58" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>4042</v>
+        <v>4242</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>4043</v>
+        <v>4243</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2531</v>
@@ -16650,10 +17250,10 @@
     </row>
     <row r="59" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>4044</v>
+        <v>4244</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>4045</v>
+        <v>4245</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
@@ -16701,10 +17301,10 @@
     </row>
     <row r="60" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>4046</v>
+        <v>4246</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>4047</v>
+        <v>4247</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>727</v>
@@ -16756,10 +17356,10 @@
     </row>
     <row r="61" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>4048</v>
+        <v>4248</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>4049</v>
+        <v>4249</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>134</v>
@@ -16811,10 +17411,10 @@
     </row>
     <row r="62" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>4050</v>
+        <v>4250</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>4051</v>
+        <v>4251</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>134</v>
@@ -16866,10 +17466,10 @@
     </row>
     <row r="63" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>4052</v>
+        <v>4252</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>4053</v>
+        <v>4253</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>134</v>
@@ -16917,10 +17517,10 @@
     </row>
     <row r="64" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>4054</v>
+        <v>4254</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>4055</v>
+        <v>4255</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
@@ -16968,10 +17568,10 @@
     </row>
     <row r="65" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>4056</v>
+        <v>4256</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>4057</v>
+        <v>4257</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>204</v>
@@ -17023,10 +17623,10 @@
     </row>
     <row r="66" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>4058</v>
+        <v>4258</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>4059</v>
+        <v>4259</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2572</v>
@@ -17078,10 +17678,10 @@
     </row>
     <row r="67" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>4060</v>
+        <v>4260</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>4061</v>
+        <v>4261</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2577</v>
@@ -17133,10 +17733,10 @@
     </row>
     <row r="68" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>4062</v>
+        <v>4262</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>4063</v>
+        <v>4263</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>562</v>
@@ -17188,10 +17788,10 @@
     </row>
     <row r="69" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>4064</v>
+        <v>4264</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>4065</v>
+        <v>4265</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2586</v>
@@ -17241,10 +17841,10 @@
     </row>
     <row r="70" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>4066</v>
+        <v>4266</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>4067</v>
+        <v>4267</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2590</v>
@@ -17296,10 +17896,10 @@
     </row>
     <row r="71" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>4068</v>
+        <v>4268</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>4069</v>
+        <v>4269</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>400</v>
@@ -17351,10 +17951,10 @@
     </row>
     <row r="72" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>4070</v>
+        <v>4270</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>4071</v>
+        <v>4271</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>543</v>
@@ -17406,10 +18006,10 @@
     </row>
     <row r="73" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>4072</v>
+        <v>4272</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4073</v>
+        <v>4273</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -17459,10 +18059,10 @@
     </row>
     <row r="74" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>4074</v>
+        <v>4274</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>4075</v>
+        <v>4275</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2603</v>
@@ -17514,10 +18114,10 @@
     </row>
     <row r="75" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>4076</v>
+        <v>4276</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>4077</v>
+        <v>4277</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>543</v>
@@ -17569,10 +18169,10 @@
     </row>
     <row r="76" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>4078</v>
+        <v>4278</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>4079</v>
+        <v>4279</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2614</v>
@@ -17624,10 +18224,10 @@
     </row>
     <row r="77" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>4080</v>
+        <v>4280</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>4081</v>
+        <v>4281</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2421</v>
@@ -17679,10 +18279,10 @@
     </row>
     <row r="78" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>4082</v>
+        <v>4282</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4083</v>
+        <v>4283</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>216</v>
@@ -17734,10 +18334,10 @@
     </row>
     <row r="79" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>4084</v>
+        <v>4284</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>4085</v>
+        <v>4285</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>216</v>
@@ -17789,10 +18389,10 @@
     </row>
     <row r="80" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>4086</v>
+        <v>4286</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>4087</v>
+        <v>4287</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>306</v>
@@ -17844,10 +18444,10 @@
     </row>
     <row r="81" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>4088</v>
+        <v>4288</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>4089</v>
+        <v>4289</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -17893,10 +18493,10 @@
     </row>
     <row r="82" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>4090</v>
+        <v>4290</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>4091</v>
+        <v>4291</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>306</v>
@@ -17948,10 +18548,10 @@
     </row>
     <row r="83" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>4092</v>
+        <v>4292</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>4093</v>
+        <v>4293</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>2637</v>
@@ -18003,10 +18603,10 @@
     </row>
     <row r="84" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>4094</v>
+        <v>4294</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>4095</v>
+        <v>4295</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>2641</v>
@@ -18058,10 +18658,10 @@
     </row>
     <row r="85" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>4096</v>
+        <v>4296</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4097</v>
+        <v>4297</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>306</v>
@@ -18113,10 +18713,10 @@
     </row>
     <row r="86" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>4098</v>
+        <v>4298</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>4099</v>
+        <v>4299</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>306</v>
@@ -18168,10 +18768,10 @@
     </row>
     <row r="87" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>4101</v>
+        <v>4301</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>176</v>
@@ -18223,10 +18823,10 @@
     </row>
     <row r="88" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>4102</v>
+        <v>4302</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>4103</v>
+        <v>4303</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>176</v>
@@ -18278,10 +18878,10 @@
     </row>
     <row r="89" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>4104</v>
+        <v>4304</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>4105</v>
+        <v>4305</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>2660</v>
@@ -18333,10 +18933,10 @@
     </row>
     <row r="90" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>4106</v>
+        <v>4306</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>4107</v>
+        <v>4307</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -18384,10 +18984,10 @@
     </row>
     <row r="91" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>4108</v>
+        <v>4308</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>4109</v>
+        <v>4309</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>2670</v>
@@ -18439,10 +19039,10 @@
     </row>
     <row r="92" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>4110</v>
+        <v>4310</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>4111</v>
+        <v>4311</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>2675</v>
@@ -18494,10 +19094,10 @@
     </row>
     <row r="93" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>4112</v>
+        <v>4312</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>4113</v>
+        <v>4313</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>2662</v>
@@ -18549,10 +19149,10 @@
     </row>
     <row r="94" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>4114</v>
+        <v>4314</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>4115</v>
+        <v>4315</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>2682</v>
@@ -18602,10 +19202,10 @@
     </row>
     <row r="95" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>4116</v>
+        <v>4316</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>4117</v>
+        <v>4317</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>2682</v>
@@ -18657,10 +19257,10 @@
     </row>
     <row r="96" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>4118</v>
+        <v>4318</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>4119</v>
+        <v>4319</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>401</v>
@@ -18712,10 +19312,10 @@
     </row>
     <row r="97" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>4120</v>
+        <v>4320</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>4121</v>
+        <v>4321</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>401</v>
@@ -18767,10 +19367,10 @@
     </row>
     <row r="98" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>4122</v>
+        <v>4322</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4123</v>
+        <v>4323</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>66</v>
@@ -18822,10 +19422,10 @@
     </row>
     <row r="99" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>4124</v>
+        <v>4324</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4125</v>
+        <v>4325</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>66</v>
@@ -18877,10 +19477,10 @@
     </row>
     <row r="100" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>4126</v>
+        <v>4326</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>4127</v>
+        <v>4327</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>66</v>
@@ -18932,10 +19532,10 @@
     </row>
     <row r="101" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>4128</v>
+        <v>4328</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>4129</v>
+        <v>4329</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>66</v>
@@ -18981,10 +19581,10 @@
     </row>
     <row r="102" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>4130</v>
+        <v>4330</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>4131</v>
+        <v>4331</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>2708</v>
@@ -19036,10 +19636,10 @@
     </row>
     <row r="103" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>4132</v>
+        <v>4332</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>4133</v>
+        <v>4333</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>187</v>
@@ -19091,10 +19691,10 @@
     </row>
     <row r="104" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>4134</v>
+        <v>4334</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>4135</v>
+        <v>4335</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>43</v>
@@ -19146,10 +19746,10 @@
     </row>
     <row r="105" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>4136</v>
+        <v>4336</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>4137</v>
+        <v>4337</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>43</v>
@@ -19199,10 +19799,10 @@
     </row>
     <row r="106" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>4138</v>
+        <v>4338</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>4139</v>
+        <v>4339</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>43</v>

--- a/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
+++ b/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12419" uniqueCount="4340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12619" uniqueCount="4540">
   <si>
     <t xml:space="preserve">Job Catalog Data Import Template   </t>
   </si>
@@ -13180,6 +13180,606 @@
   </si>
   <si>
     <t>JOU100-20260123164411</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>SE01-20260123172535</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>DA02-20260123172535</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PM03-20260123172535</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>SM04-20260123172535</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>MS05-20260123172535</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>HR06-20260123172535</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>FA07-20260123172535</t>
+  </si>
+  <si>
+    <t>Accountant 20260123172535</t>
+  </si>
+  <si>
+    <t>AC08-20260123172535</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123172535</t>
+  </si>
+  <si>
+    <t>CS09-20260123172535</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>OM10-20260123172535</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>QA11-20260123172535</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>DO12-20260123172535</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>BA13-20260123172535</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PJM14-20260123172535</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>UX15-20260123172535</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>GD16-20260123172535</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123172535</t>
+  </si>
+  <si>
+    <t>CW17-20260123172535</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>NA18-20260123172535</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>DBA19-20260123172535</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>SA20-20260123172535</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>CA21-20260123172535</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123172535</t>
+  </si>
+  <si>
+    <t>LC22-20260123172535</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123172535</t>
+  </si>
+  <si>
+    <t>CO23-20260123172535</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>SCM24-20260123172535</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>LOG25-20260123172535</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>PS26-20260123172535</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>TC27-20260123172535</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>RS28-20260123172535</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>PA29-20260123172535</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123172535</t>
+  </si>
+  <si>
+    <t>EA30-20260123172535</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123172535</t>
+  </si>
+  <si>
+    <t>AA31-20260123172535</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123172535</t>
+  </si>
+  <si>
+    <t>REC32-20260123172535</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123172535</t>
+  </si>
+  <si>
+    <t>SEX33-20260123172535</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>AM34-20260123172535</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>BDM35-20260123172535</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>CSM36-20260123172535</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>TS37-20260123172535</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123172535</t>
+  </si>
+  <si>
+    <t>HD38-20260123172535</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>MM39-20260123172535</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>BM40-20260123172535</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>SMM41-20260123172535</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>SEO42-20260123172535</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PR43-20260123172535</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>COM44-20260123172535</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123172535</t>
+  </si>
+  <si>
+    <t>RES45-20260123172535</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123172535</t>
+  </si>
+  <si>
+    <t>LAB46-20260123172535</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>CRC47-20260123172535</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123172535</t>
+  </si>
+  <si>
+    <t>PH48-20260123172535</t>
+  </si>
+  <si>
+    <t>Nurse 20260123172535</t>
+  </si>
+  <si>
+    <t>NUR49-20260123172535</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123172535</t>
+  </si>
+  <si>
+    <t>MA50-20260123172535</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123172535</t>
+  </si>
+  <si>
+    <t>PT51-20260123172535</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123172535</t>
+  </si>
+  <si>
+    <t>OT52-20260123172535</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123172535</t>
+  </si>
+  <si>
+    <t>RT53-20260123172535</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>CM54-20260123172535</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>CE55-20260123172535</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>ME56-20260123172535</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>EE57-20260123172535</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>MFE58-20260123172535</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123172535</t>
+  </si>
+  <si>
+    <t>PRS59-20260123172535</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>WM60-20260123172535</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>INV61-20260123172535</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123172535</t>
+  </si>
+  <si>
+    <t>MT62-20260123172535</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>FM63-20260123172535</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>EHS64-20260123172535</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123172535</t>
+  </si>
+  <si>
+    <t>SO65-20260123172535</t>
+  </si>
+  <si>
+    <t>Teacher 20260123172535</t>
+  </si>
+  <si>
+    <t>TEA66-20260123172535</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>TRS67-20260123172535</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>ID68-20260123172535</t>
+  </si>
+  <si>
+    <t>Librarian 20260123172535</t>
+  </si>
+  <si>
+    <t>LIB69-20260123172535</t>
+  </si>
+  <si>
+    <t>Architect 20260123172535</t>
+  </si>
+  <si>
+    <t>ARC70-20260123172535</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>IDE71-20260123172535</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123172535</t>
+  </si>
+  <si>
+    <t>REA72-20260123172535</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PRM73-20260123172535</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123172535</t>
+  </si>
+  <si>
+    <t>FIA74-20260123172535</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>IA75-20260123172535</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>CRA76-20260123172535</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>RM77-20260123172535</t>
+  </si>
+  <si>
+    <t>Auditor 20260123172535</t>
+  </si>
+  <si>
+    <t>AUD78-20260123172535</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>TAX79-20260123172535</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>BUA80-20260123172535</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123172535</t>
+  </si>
+  <si>
+    <t>PAR81-20260123172535</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>CTM82-20260123172535</t>
+  </si>
+  <si>
+    <t>Chef 20260123172535</t>
+  </si>
+  <si>
+    <t>CHF83-20260123172535</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>REM84-20260123172535</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>EVC85-20260123172535</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>TRC86-20260123172535</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>HM87-20260123172535</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123172535</t>
+  </si>
+  <si>
+    <t>FA88-20260123172535</t>
+  </si>
+  <si>
+    <t>Pilot 20260123172535</t>
+  </si>
+  <si>
+    <t>PIL89-20260123172535</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123172535</t>
+  </si>
+  <si>
+    <t>TD90-20260123172535</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123172535</t>
+  </si>
+  <si>
+    <t>DD91-20260123172535</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>RSM92-20260123172535</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123172535</t>
+  </si>
+  <si>
+    <t>SAL93-20260123172535</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123172535</t>
+  </si>
+  <si>
+    <t>VM94-20260123172535</t>
+  </si>
+  <si>
+    <t>Buyer 20260123172535</t>
+  </si>
+  <si>
+    <t>BUY95-20260123172535</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>ECM96-20260123172535</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>DMM97-20260123172535</t>
+  </si>
+  <si>
+    <t>Videographer 20260123172535</t>
+  </si>
+  <si>
+    <t>VID98-20260123172535</t>
+  </si>
+  <si>
+    <t>Photographer 20260123172535</t>
+  </si>
+  <si>
+    <t>PHO99-20260123172535</t>
+  </si>
+  <si>
+    <t>Journalist 20260123172535</t>
+  </si>
+  <si>
+    <t>JOU100-20260123172535</t>
   </si>
 </sst>
 </file>
@@ -14436,10 +15036,10 @@
     </row>
     <row r="7" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4141</v>
+        <v>4341</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>134</v>
@@ -14491,10 +15091,10 @@
     </row>
     <row r="8" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>4142</v>
+        <v>4342</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4143</v>
+        <v>4343</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2375</v>
@@ -14546,10 +15146,10 @@
     </row>
     <row r="9" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>4144</v>
+        <v>4344</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4145</v>
+        <v>4345</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2380</v>
@@ -14599,10 +15199,10 @@
     </row>
     <row r="10" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>4146</v>
+        <v>4346</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4147</v>
+        <v>4347</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>220</v>
@@ -14650,10 +15250,10 @@
     </row>
     <row r="11" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>4148</v>
+        <v>4348</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4149</v>
+        <v>4349</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>187</v>
@@ -14705,10 +15305,10 @@
     </row>
     <row r="12" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>4150</v>
+        <v>4350</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4151</v>
+        <v>4351</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1106</v>
@@ -14760,10 +15360,10 @@
     </row>
     <row r="13" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>4152</v>
+        <v>4352</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4153</v>
+        <v>4353</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>306</v>
@@ -14815,10 +15415,10 @@
     </row>
     <row r="14" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>4154</v>
+        <v>4354</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4155</v>
+        <v>4355</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>306</v>
@@ -14870,10 +15470,10 @@
     </row>
     <row r="15" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>4156</v>
+        <v>4356</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4157</v>
+        <v>4357</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>130</v>
@@ -14923,10 +15523,10 @@
     </row>
     <row r="16" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>4158</v>
+        <v>4358</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4159</v>
+        <v>4359</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2402</v>
@@ -14978,10 +15578,10 @@
     </row>
     <row r="17" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>4160</v>
+        <v>4360</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4161</v>
+        <v>4361</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>134</v>
@@ -15027,10 +15627,10 @@
     </row>
     <row r="18" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>4162</v>
+        <v>4362</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4163</v>
+        <v>4363</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>134</v>
@@ -15082,10 +15682,10 @@
     </row>
     <row r="19" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>4164</v>
+        <v>4364</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4165</v>
+        <v>4365</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2375</v>
@@ -15137,10 +15737,10 @@
     </row>
     <row r="20" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>4166</v>
+        <v>4366</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4167</v>
+        <v>4367</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2417</v>
@@ -15192,10 +15792,10 @@
     </row>
     <row r="21" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>4168</v>
+        <v>4368</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4169</v>
+        <v>4369</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2421</v>
@@ -15247,10 +15847,10 @@
     </row>
     <row r="22" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>4170</v>
+        <v>4370</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4171</v>
+        <v>4371</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2421</v>
@@ -15298,10 +15898,10 @@
     </row>
     <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>4172</v>
+        <v>4372</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4173</v>
+        <v>4373</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>187</v>
@@ -15353,10 +15953,10 @@
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>4174</v>
+        <v>4374</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>4175</v>
+        <v>4375</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>1124</v>
@@ -15408,10 +16008,10 @@
     </row>
     <row r="25" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>4176</v>
+        <v>4376</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4177</v>
+        <v>4377</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1124</v>
@@ -15455,10 +16055,10 @@
     </row>
     <row r="26" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>4178</v>
+        <v>4378</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>4179</v>
+        <v>4379</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1124</v>
@@ -15510,10 +16110,10 @@
     </row>
     <row r="27" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>4180</v>
+        <v>4380</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4181</v>
+        <v>4381</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>1124</v>
@@ -15565,10 +16165,10 @@
     </row>
     <row r="28" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>4182</v>
+        <v>4382</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4183</v>
+        <v>4383</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>176</v>
@@ -15620,10 +16220,10 @@
     </row>
     <row r="29" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>4184</v>
+        <v>4384</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4185</v>
+        <v>4385</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2452</v>
@@ -15675,10 +16275,10 @@
     </row>
     <row r="30" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>4186</v>
+        <v>4386</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4187</v>
+        <v>4387</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2456</v>
@@ -15728,10 +16328,10 @@
     </row>
     <row r="31" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>4188</v>
+        <v>4388</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>4189</v>
+        <v>4389</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2460</v>
@@ -15783,10 +16383,10 @@
     </row>
     <row r="32" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>4190</v>
+        <v>4390</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>4191</v>
+        <v>4391</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2464</v>
@@ -15838,10 +16438,10 @@
     </row>
     <row r="33" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>4192</v>
+        <v>4392</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>4193</v>
+        <v>4393</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>1106</v>
@@ -15893,10 +16493,10 @@
     </row>
     <row r="34" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>4194</v>
+        <v>4394</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4195</v>
+        <v>4395</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1106</v>
@@ -15948,10 +16548,10 @@
     </row>
     <row r="35" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>4196</v>
+        <v>4396</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>4197</v>
+        <v>4397</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1106</v>
@@ -16003,10 +16603,10 @@
     </row>
     <row r="36" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>4198</v>
+        <v>4398</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>4199</v>
+        <v>4399</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2479</v>
@@ -16058,10 +16658,10 @@
     </row>
     <row r="37" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>4201</v>
+        <v>4401</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2479</v>
@@ -16111,10 +16711,10 @@
     </row>
     <row r="38" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>4202</v>
+        <v>4402</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4203</v>
+        <v>4403</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2479</v>
@@ -16166,10 +16766,10 @@
     </row>
     <row r="39" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>4204</v>
+        <v>4404</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4205</v>
+        <v>4405</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>220</v>
@@ -16221,10 +16821,10 @@
     </row>
     <row r="40" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>4206</v>
+        <v>4406</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>4207</v>
+        <v>4407</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>220</v>
@@ -16276,10 +16876,10 @@
     </row>
     <row r="41" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>4208</v>
+        <v>4408</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>4209</v>
+        <v>4409</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>220</v>
@@ -16331,10 +16931,10 @@
     </row>
     <row r="42" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>4210</v>
+        <v>4410</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>4211</v>
+        <v>4411</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>130</v>
@@ -16384,10 +16984,10 @@
     </row>
     <row r="43" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>4212</v>
+        <v>4412</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>4213</v>
+        <v>4413</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2502</v>
@@ -16439,10 +17039,10 @@
     </row>
     <row r="44" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>4214</v>
+        <v>4414</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>4215</v>
+        <v>4415</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2502</v>
@@ -16494,10 +17094,10 @@
     </row>
     <row r="45" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>4216</v>
+        <v>4416</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4217</v>
+        <v>4417</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>187</v>
@@ -16549,10 +17149,10 @@
     </row>
     <row r="46" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>4218</v>
+        <v>4418</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4219</v>
+        <v>4419</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>187</v>
@@ -16604,10 +17204,10 @@
     </row>
     <row r="47" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>4220</v>
+        <v>4420</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>4221</v>
+        <v>4421</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>187</v>
@@ -16659,10 +17259,10 @@
     </row>
     <row r="48" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>4222</v>
+        <v>4422</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>4223</v>
+        <v>4423</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>187</v>
@@ -16712,10 +17312,10 @@
     </row>
     <row r="49" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>4224</v>
+        <v>4424</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4225</v>
+        <v>4425</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>30</v>
@@ -16767,10 +17367,10 @@
     </row>
     <row r="50" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>4226</v>
+        <v>4426</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>4227</v>
+        <v>4427</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -16822,10 +17422,10 @@
     </row>
     <row r="51" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>4228</v>
+        <v>4428</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>4229</v>
+        <v>4429</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>422</v>
@@ -16877,10 +17477,10 @@
     </row>
     <row r="52" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>4230</v>
+        <v>4430</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>4231</v>
+        <v>4431</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>422</v>
@@ -16932,10 +17532,10 @@
     </row>
     <row r="53" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>4232</v>
+        <v>4432</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>4233</v>
+        <v>4433</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>422</v>
@@ -16987,10 +17587,10 @@
     </row>
     <row r="54" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>4234</v>
+        <v>4434</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>4235</v>
+        <v>4435</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -17030,10 +17630,10 @@
     </row>
     <row r="55" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>4236</v>
+        <v>4436</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>4237</v>
+        <v>4437</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>2531</v>
@@ -17085,10 +17685,10 @@
     </row>
     <row r="56" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>4238</v>
+        <v>4438</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>4239</v>
+        <v>4439</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2531</v>
@@ -17140,10 +17740,10 @@
     </row>
     <row r="57" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>4240</v>
+        <v>4440</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>4241</v>
+        <v>4441</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2531</v>
@@ -17195,10 +17795,10 @@
     </row>
     <row r="58" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>4242</v>
+        <v>4442</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>4243</v>
+        <v>4443</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2531</v>
@@ -17250,10 +17850,10 @@
     </row>
     <row r="59" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>4244</v>
+        <v>4444</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>4245</v>
+        <v>4445</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
@@ -17301,10 +17901,10 @@
     </row>
     <row r="60" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>4246</v>
+        <v>4446</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>4247</v>
+        <v>4447</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>727</v>
@@ -17356,10 +17956,10 @@
     </row>
     <row r="61" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>4248</v>
+        <v>4448</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>4249</v>
+        <v>4449</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>134</v>
@@ -17411,10 +18011,10 @@
     </row>
     <row r="62" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>4250</v>
+        <v>4450</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>4251</v>
+        <v>4451</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>134</v>
@@ -17466,10 +18066,10 @@
     </row>
     <row r="63" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>4252</v>
+        <v>4452</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>4253</v>
+        <v>4453</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>134</v>
@@ -17517,10 +18117,10 @@
     </row>
     <row r="64" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>4254</v>
+        <v>4454</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>4255</v>
+        <v>4455</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
@@ -17568,10 +18168,10 @@
     </row>
     <row r="65" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>4256</v>
+        <v>4456</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>4257</v>
+        <v>4457</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>204</v>
@@ -17623,10 +18223,10 @@
     </row>
     <row r="66" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>4258</v>
+        <v>4458</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>4259</v>
+        <v>4459</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2572</v>
@@ -17678,10 +18278,10 @@
     </row>
     <row r="67" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>4261</v>
+        <v>4461</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2577</v>
@@ -17733,10 +18333,10 @@
     </row>
     <row r="68" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>4262</v>
+        <v>4462</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>4263</v>
+        <v>4463</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>562</v>
@@ -17788,10 +18388,10 @@
     </row>
     <row r="69" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>4264</v>
+        <v>4464</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>4265</v>
+        <v>4465</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2586</v>
@@ -17841,10 +18441,10 @@
     </row>
     <row r="70" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>4266</v>
+        <v>4466</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>4267</v>
+        <v>4467</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2590</v>
@@ -17896,10 +18496,10 @@
     </row>
     <row r="71" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>4268</v>
+        <v>4468</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>4269</v>
+        <v>4469</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>400</v>
@@ -17951,10 +18551,10 @@
     </row>
     <row r="72" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>4270</v>
+        <v>4470</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>4271</v>
+        <v>4471</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>543</v>
@@ -18006,10 +18606,10 @@
     </row>
     <row r="73" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>4272</v>
+        <v>4472</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4273</v>
+        <v>4473</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -18059,10 +18659,10 @@
     </row>
     <row r="74" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>4274</v>
+        <v>4474</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>4275</v>
+        <v>4475</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2603</v>
@@ -18114,10 +18714,10 @@
     </row>
     <row r="75" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>4276</v>
+        <v>4476</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>4277</v>
+        <v>4477</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>543</v>
@@ -18169,10 +18769,10 @@
     </row>
     <row r="76" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>4278</v>
+        <v>4478</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>4279</v>
+        <v>4479</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2614</v>
@@ -18224,10 +18824,10 @@
     </row>
     <row r="77" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>4280</v>
+        <v>4480</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>4281</v>
+        <v>4481</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2421</v>
@@ -18279,10 +18879,10 @@
     </row>
     <row r="78" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>4282</v>
+        <v>4482</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4283</v>
+        <v>4483</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>216</v>
@@ -18334,10 +18934,10 @@
     </row>
     <row r="79" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>4284</v>
+        <v>4484</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>4285</v>
+        <v>4485</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>216</v>
@@ -18389,10 +18989,10 @@
     </row>
     <row r="80" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>4286</v>
+        <v>4486</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>4287</v>
+        <v>4487</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>306</v>
@@ -18444,10 +19044,10 @@
     </row>
     <row r="81" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>4288</v>
+        <v>4488</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>4289</v>
+        <v>4489</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -18493,10 +19093,10 @@
     </row>
     <row r="82" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>4290</v>
+        <v>4490</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>4291</v>
+        <v>4491</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>306</v>
@@ -18548,10 +19148,10 @@
     </row>
     <row r="83" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>4292</v>
+        <v>4492</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>4293</v>
+        <v>4493</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>2637</v>
@@ -18603,10 +19203,10 @@
     </row>
     <row r="84" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>4294</v>
+        <v>4494</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>4295</v>
+        <v>4495</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>2641</v>
@@ -18658,10 +19258,10 @@
     </row>
     <row r="85" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>4296</v>
+        <v>4496</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4297</v>
+        <v>4497</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>306</v>
@@ -18713,10 +19313,10 @@
     </row>
     <row r="86" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>4298</v>
+        <v>4498</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>4299</v>
+        <v>4499</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>306</v>
@@ -18768,10 +19368,10 @@
     </row>
     <row r="87" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>4301</v>
+        <v>4501</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>176</v>
@@ -18823,10 +19423,10 @@
     </row>
     <row r="88" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>4302</v>
+        <v>4502</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>4303</v>
+        <v>4503</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>176</v>
@@ -18878,10 +19478,10 @@
     </row>
     <row r="89" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>4304</v>
+        <v>4504</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>4305</v>
+        <v>4505</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>2660</v>
@@ -18933,10 +19533,10 @@
     </row>
     <row r="90" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>4306</v>
+        <v>4506</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>4307</v>
+        <v>4507</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -18984,10 +19584,10 @@
     </row>
     <row r="91" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>4308</v>
+        <v>4508</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>4309</v>
+        <v>4509</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>2670</v>
@@ -19039,10 +19639,10 @@
     </row>
     <row r="92" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>4310</v>
+        <v>4510</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>4311</v>
+        <v>4511</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>2675</v>
@@ -19094,10 +19694,10 @@
     </row>
     <row r="93" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>4312</v>
+        <v>4512</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>4313</v>
+        <v>4513</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>2662</v>
@@ -19149,10 +19749,10 @@
     </row>
     <row r="94" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>4314</v>
+        <v>4514</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>4315</v>
+        <v>4515</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>2682</v>
@@ -19202,10 +19802,10 @@
     </row>
     <row r="95" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>4316</v>
+        <v>4516</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>4317</v>
+        <v>4517</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>2682</v>
@@ -19257,10 +19857,10 @@
     </row>
     <row r="96" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>4318</v>
+        <v>4518</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>4319</v>
+        <v>4519</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>401</v>
@@ -19312,10 +19912,10 @@
     </row>
     <row r="97" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>4320</v>
+        <v>4520</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>4321</v>
+        <v>4521</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>401</v>
@@ -19367,10 +19967,10 @@
     </row>
     <row r="98" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>4322</v>
+        <v>4522</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4323</v>
+        <v>4523</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>66</v>
@@ -19422,10 +20022,10 @@
     </row>
     <row r="99" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>4324</v>
+        <v>4524</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4325</v>
+        <v>4525</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>66</v>
@@ -19477,10 +20077,10 @@
     </row>
     <row r="100" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>4326</v>
+        <v>4526</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>4327</v>
+        <v>4527</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>66</v>
@@ -19532,10 +20132,10 @@
     </row>
     <row r="101" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>4328</v>
+        <v>4528</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>4329</v>
+        <v>4529</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>66</v>
@@ -19581,10 +20181,10 @@
     </row>
     <row r="102" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>4330</v>
+        <v>4530</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>4331</v>
+        <v>4531</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>2708</v>
@@ -19636,10 +20236,10 @@
     </row>
     <row r="103" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>4332</v>
+        <v>4532</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>4333</v>
+        <v>4533</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>187</v>
@@ -19691,10 +20291,10 @@
     </row>
     <row r="104" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>4334</v>
+        <v>4534</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>4335</v>
+        <v>4535</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>43</v>
@@ -19746,10 +20346,10 @@
     </row>
     <row r="105" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>4336</v>
+        <v>4536</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>4337</v>
+        <v>4537</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>43</v>
@@ -19799,10 +20399,10 @@
     </row>
     <row r="106" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>4338</v>
+        <v>4538</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>4339</v>
+        <v>4539</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>43</v>

--- a/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
+++ b/e2e-automation/src/test/resources/JobCatalogNewFormat-100 Profiles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Job Mapping\e2e-automation\src\test\resources\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11019" uniqueCount="2955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12619" uniqueCount="4555">
   <si>
     <t xml:space="preserve">Job Catalog Data Import Template   </t>
   </si>
@@ -9026,11 +9026,4812 @@
   <si>
     <t>JOU100-20260127133807</t>
   </si>
+  <si>
+    <t>Software Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>SE01-20260128123805</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260128123805</t>
+  </si>
+  <si>
+    <t>DA02-20260128123805</t>
+  </si>
+  <si>
+    <t>Product Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>PM03-20260128123805</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>SM04-20260128123805</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>MS05-20260128123805</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>HR06-20260128123805</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260128123805</t>
+  </si>
+  <si>
+    <t>FA07-20260128123805</t>
+  </si>
+  <si>
+    <t>Accountant 20260128123805</t>
+  </si>
+  <si>
+    <t>AC08-20260128123805</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260128123805</t>
+  </si>
+  <si>
+    <t>CS09-20260128123805</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>OM10-20260128123805</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>QA11-20260128123805</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>DO12-20260128123805</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260128123805</t>
+  </si>
+  <si>
+    <t>BA13-20260128123805</t>
+  </si>
+  <si>
+    <t>Project Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>PJM14-20260128123805</t>
+  </si>
+  <si>
+    <t>UX Designer 20260128123805</t>
+  </si>
+  <si>
+    <t>UX15-20260128123805</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260128123805</t>
+  </si>
+  <si>
+    <t>GD16-20260128123805</t>
+  </si>
+  <si>
+    <t>Content Writer 20260128123805</t>
+  </si>
+  <si>
+    <t>CW17-20260128123805</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260128123805</t>
+  </si>
+  <si>
+    <t>NA18-20260128123805</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260128123805</t>
+  </si>
+  <si>
+    <t>DBA19-20260128123805</t>
+  </si>
+  <si>
+    <t>System Administrator 20260128123805</t>
+  </si>
+  <si>
+    <t>SA20-20260128123805</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260128123805</t>
+  </si>
+  <si>
+    <t>CA21-20260128123805</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260128123805</t>
+  </si>
+  <si>
+    <t>LC22-20260128123805</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260128123805</t>
+  </si>
+  <si>
+    <t>CO23-20260128123805</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>SCM24-20260128123805</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260128123805</t>
+  </si>
+  <si>
+    <t>LOG25-20260128123805</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>PS26-20260128123805</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260128123805</t>
+  </si>
+  <si>
+    <t>TC27-20260128123805</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>RS28-20260128123805</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260128123805</t>
+  </si>
+  <si>
+    <t>PA29-20260128123805</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260128123805</t>
+  </si>
+  <si>
+    <t>EA30-20260128123805</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260128123805</t>
+  </si>
+  <si>
+    <t>AA31-20260128123805</t>
+  </si>
+  <si>
+    <t>Receptionist 20260128123805</t>
+  </si>
+  <si>
+    <t>REC32-20260128123805</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260128123805</t>
+  </si>
+  <si>
+    <t>SEX33-20260128123805</t>
+  </si>
+  <si>
+    <t>Account Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>AM34-20260128123805</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>BDM35-20260128123805</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>CSM36-20260128123805</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>TS37-20260128123805</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260128123805</t>
+  </si>
+  <si>
+    <t>HD38-20260128123805</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>MM39-20260128123805</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>BM40-20260128123805</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>SMM41-20260128123805</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>SEO42-20260128123805</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>PR43-20260128123805</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>COM44-20260128123805</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260128123805</t>
+  </si>
+  <si>
+    <t>RES45-20260128123805</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260128123805</t>
+  </si>
+  <si>
+    <t>LAB46-20260128123805</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260128123805</t>
+  </si>
+  <si>
+    <t>CRC47-20260128123805</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260128123805</t>
+  </si>
+  <si>
+    <t>PH48-20260128123805</t>
+  </si>
+  <si>
+    <t>Nurse 20260128123805</t>
+  </si>
+  <si>
+    <t>NUR49-20260128123805</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260128123805</t>
+  </si>
+  <si>
+    <t>MA50-20260128123805</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260128123805</t>
+  </si>
+  <si>
+    <t>PT51-20260128123805</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260128123805</t>
+  </si>
+  <si>
+    <t>OT52-20260128123805</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260128123805</t>
+  </si>
+  <si>
+    <t>RT53-20260128123805</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>CM54-20260128123805</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>CE55-20260128123805</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>ME56-20260128123805</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>EE57-20260128123805</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260128123805</t>
+  </si>
+  <si>
+    <t>MFE58-20260128123805</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260128123805</t>
+  </si>
+  <si>
+    <t>PRS59-20260128123805</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>WM60-20260128123805</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>INV61-20260128123805</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260128123805</t>
+  </si>
+  <si>
+    <t>MT62-20260128123805</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>FM63-20260128123805</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>EHS64-20260128123805</t>
+  </si>
+  <si>
+    <t>Security Officer 20260128123805</t>
+  </si>
+  <si>
+    <t>SO65-20260128123805</t>
+  </si>
+  <si>
+    <t>Teacher 20260128123805</t>
+  </si>
+  <si>
+    <t>TEA66-20260128123805</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>TRS67-20260128123805</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260128123805</t>
+  </si>
+  <si>
+    <t>ID68-20260128123805</t>
+  </si>
+  <si>
+    <t>Librarian 20260128123805</t>
+  </si>
+  <si>
+    <t>LIB69-20260128123805</t>
+  </si>
+  <si>
+    <t>Architect 20260128123805</t>
+  </si>
+  <si>
+    <t>ARC70-20260128123805</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260128123805</t>
+  </si>
+  <si>
+    <t>IDE71-20260128123805</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260128123805</t>
+  </si>
+  <si>
+    <t>REA72-20260128123805</t>
+  </si>
+  <si>
+    <t>Property Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>PRM73-20260128123805</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260128123805</t>
+  </si>
+  <si>
+    <t>FIA74-20260128123805</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260128123805</t>
+  </si>
+  <si>
+    <t>IA75-20260128123805</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260128123805</t>
+  </si>
+  <si>
+    <t>CRA76-20260128123805</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>RM77-20260128123805</t>
+  </si>
+  <si>
+    <t>Auditor 20260128123805</t>
+  </si>
+  <si>
+    <t>AUD78-20260128123805</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260128123805</t>
+  </si>
+  <si>
+    <t>TAX79-20260128123805</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260128123805</t>
+  </si>
+  <si>
+    <t>BUA80-20260128123805</t>
+  </si>
+  <si>
+    <t>Paralegal 20260128123805</t>
+  </si>
+  <si>
+    <t>PAR81-20260128123805</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>CTM82-20260128123805</t>
+  </si>
+  <si>
+    <t>Chef 20260128123805</t>
+  </si>
+  <si>
+    <t>CHF83-20260128123805</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>REM84-20260128123805</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260128123805</t>
+  </si>
+  <si>
+    <t>EVC85-20260128123805</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260128123805</t>
+  </si>
+  <si>
+    <t>TRC86-20260128123805</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>HM87-20260128123805</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260128123805</t>
+  </si>
+  <si>
+    <t>FA88-20260128123805</t>
+  </si>
+  <si>
+    <t>Pilot 20260128123805</t>
+  </si>
+  <si>
+    <t>PIL89-20260128123805</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260128123805</t>
+  </si>
+  <si>
+    <t>TD90-20260128123805</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260128123805</t>
+  </si>
+  <si>
+    <t>DD91-20260128123805</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>RSM92-20260128123805</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260128123805</t>
+  </si>
+  <si>
+    <t>SAL93-20260128123805</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260128123805</t>
+  </si>
+  <si>
+    <t>VM94-20260128123805</t>
+  </si>
+  <si>
+    <t>Buyer 20260128123805</t>
+  </si>
+  <si>
+    <t>BUY95-20260128123805</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>ECM96-20260128123805</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260128123805</t>
+  </si>
+  <si>
+    <t>DMM97-20260128123805</t>
+  </si>
+  <si>
+    <t>Videographer 20260128123805</t>
+  </si>
+  <si>
+    <t>VID98-20260128123805</t>
+  </si>
+  <si>
+    <t>Photographer 20260128123805</t>
+  </si>
+  <si>
+    <t>PHO99-20260128123805</t>
+  </si>
+  <si>
+    <t>Journalist 20260128123805</t>
+  </si>
+  <si>
+    <t>JOU100-20260128123805</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>SE01-20260129111742</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260129111742</t>
+  </si>
+  <si>
+    <t>DA02-20260129111742</t>
+  </si>
+  <si>
+    <t>Product Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>PM03-20260129111742</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>SM04-20260129111742</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>MS05-20260129111742</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>HR06-20260129111742</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260129111742</t>
+  </si>
+  <si>
+    <t>FA07-20260129111742</t>
+  </si>
+  <si>
+    <t>Accountant 20260129111742</t>
+  </si>
+  <si>
+    <t>AC08-20260129111742</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260129111742</t>
+  </si>
+  <si>
+    <t>CS09-20260129111742</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>OM10-20260129111742</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>QA11-20260129111742</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>DO12-20260129111742</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260129111742</t>
+  </si>
+  <si>
+    <t>BA13-20260129111742</t>
+  </si>
+  <si>
+    <t>Project Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>PJM14-20260129111742</t>
+  </si>
+  <si>
+    <t>UX Designer 20260129111742</t>
+  </si>
+  <si>
+    <t>UX15-20260129111742</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260129111742</t>
+  </si>
+  <si>
+    <t>GD16-20260129111742</t>
+  </si>
+  <si>
+    <t>Content Writer 20260129111742</t>
+  </si>
+  <si>
+    <t>CW17-20260129111742</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260129111742</t>
+  </si>
+  <si>
+    <t>NA18-20260129111742</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260129111742</t>
+  </si>
+  <si>
+    <t>DBA19-20260129111742</t>
+  </si>
+  <si>
+    <t>System Administrator 20260129111742</t>
+  </si>
+  <si>
+    <t>SA20-20260129111742</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260129111742</t>
+  </si>
+  <si>
+    <t>CA21-20260129111742</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260129111742</t>
+  </si>
+  <si>
+    <t>LC22-20260129111742</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260129111742</t>
+  </si>
+  <si>
+    <t>CO23-20260129111742</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>SCM24-20260129111742</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260129111742</t>
+  </si>
+  <si>
+    <t>LOG25-20260129111742</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>PS26-20260129111742</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260129111742</t>
+  </si>
+  <si>
+    <t>TC27-20260129111742</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>RS28-20260129111742</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260129111742</t>
+  </si>
+  <si>
+    <t>PA29-20260129111742</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260129111742</t>
+  </si>
+  <si>
+    <t>EA30-20260129111742</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260129111742</t>
+  </si>
+  <si>
+    <t>AA31-20260129111742</t>
+  </si>
+  <si>
+    <t>Receptionist 20260129111742</t>
+  </si>
+  <si>
+    <t>REC32-20260129111742</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260129111742</t>
+  </si>
+  <si>
+    <t>SEX33-20260129111742</t>
+  </si>
+  <si>
+    <t>Account Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>AM34-20260129111742</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>BDM35-20260129111742</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>CSM36-20260129111742</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>TS37-20260129111742</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260129111742</t>
+  </si>
+  <si>
+    <t>HD38-20260129111742</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>MM39-20260129111742</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>BM40-20260129111742</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>SMM41-20260129111742</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>SEO42-20260129111742</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>PR43-20260129111742</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>COM44-20260129111742</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260129111742</t>
+  </si>
+  <si>
+    <t>RES45-20260129111742</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260129111742</t>
+  </si>
+  <si>
+    <t>LAB46-20260129111742</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260129111742</t>
+  </si>
+  <si>
+    <t>CRC47-20260129111742</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260129111742</t>
+  </si>
+  <si>
+    <t>PH48-20260129111742</t>
+  </si>
+  <si>
+    <t>Nurse 20260129111742</t>
+  </si>
+  <si>
+    <t>NUR49-20260129111742</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260129111742</t>
+  </si>
+  <si>
+    <t>MA50-20260129111742</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260129111742</t>
+  </si>
+  <si>
+    <t>PT51-20260129111742</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260129111742</t>
+  </si>
+  <si>
+    <t>OT52-20260129111742</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260129111742</t>
+  </si>
+  <si>
+    <t>RT53-20260129111742</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>CM54-20260129111742</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>CE55-20260129111742</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>ME56-20260129111742</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>EE57-20260129111742</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260129111742</t>
+  </si>
+  <si>
+    <t>MFE58-20260129111742</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260129111742</t>
+  </si>
+  <si>
+    <t>PRS59-20260129111742</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>WM60-20260129111742</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>INV61-20260129111742</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260129111742</t>
+  </si>
+  <si>
+    <t>MT62-20260129111742</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>FM63-20260129111742</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>EHS64-20260129111742</t>
+  </si>
+  <si>
+    <t>Security Officer 20260129111742</t>
+  </si>
+  <si>
+    <t>SO65-20260129111742</t>
+  </si>
+  <si>
+    <t>Teacher 20260129111742</t>
+  </si>
+  <si>
+    <t>TEA66-20260129111742</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>TRS67-20260129111742</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260129111742</t>
+  </si>
+  <si>
+    <t>ID68-20260129111742</t>
+  </si>
+  <si>
+    <t>Librarian 20260129111742</t>
+  </si>
+  <si>
+    <t>LIB69-20260129111742</t>
+  </si>
+  <si>
+    <t>Architect 20260129111742</t>
+  </si>
+  <si>
+    <t>ARC70-20260129111742</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260129111742</t>
+  </si>
+  <si>
+    <t>IDE71-20260129111742</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260129111742</t>
+  </si>
+  <si>
+    <t>REA72-20260129111742</t>
+  </si>
+  <si>
+    <t>Property Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>PRM73-20260129111742</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260129111742</t>
+  </si>
+  <si>
+    <t>FIA74-20260129111742</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260129111742</t>
+  </si>
+  <si>
+    <t>IA75-20260129111742</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260129111742</t>
+  </si>
+  <si>
+    <t>CRA76-20260129111742</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>RM77-20260129111742</t>
+  </si>
+  <si>
+    <t>Auditor 20260129111742</t>
+  </si>
+  <si>
+    <t>AUD78-20260129111742</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260129111742</t>
+  </si>
+  <si>
+    <t>TAX79-20260129111742</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260129111742</t>
+  </si>
+  <si>
+    <t>BUA80-20260129111742</t>
+  </si>
+  <si>
+    <t>Paralegal 20260129111742</t>
+  </si>
+  <si>
+    <t>PAR81-20260129111742</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>CTM82-20260129111742</t>
+  </si>
+  <si>
+    <t>Chef 20260129111742</t>
+  </si>
+  <si>
+    <t>CHF83-20260129111742</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>REM84-20260129111742</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260129111742</t>
+  </si>
+  <si>
+    <t>EVC85-20260129111742</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260129111742</t>
+  </si>
+  <si>
+    <t>TRC86-20260129111742</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>HM87-20260129111742</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260129111742</t>
+  </si>
+  <si>
+    <t>FA88-20260129111742</t>
+  </si>
+  <si>
+    <t>Pilot 20260129111742</t>
+  </si>
+  <si>
+    <t>PIL89-20260129111742</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260129111742</t>
+  </si>
+  <si>
+    <t>TD90-20260129111742</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260129111742</t>
+  </si>
+  <si>
+    <t>DD91-20260129111742</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>RSM92-20260129111742</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260129111742</t>
+  </si>
+  <si>
+    <t>SAL93-20260129111742</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260129111742</t>
+  </si>
+  <si>
+    <t>VM94-20260129111742</t>
+  </si>
+  <si>
+    <t>Buyer 20260129111742</t>
+  </si>
+  <si>
+    <t>BUY95-20260129111742</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>ECM96-20260129111742</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260129111742</t>
+  </si>
+  <si>
+    <t>DMM97-20260129111742</t>
+  </si>
+  <si>
+    <t>Videographer 20260129111742</t>
+  </si>
+  <si>
+    <t>VID98-20260129111742</t>
+  </si>
+  <si>
+    <t>Photographer 20260129111742</t>
+  </si>
+  <si>
+    <t>PHO99-20260129111742</t>
+  </si>
+  <si>
+    <t>Journalist 20260129111742</t>
+  </si>
+  <si>
+    <t>JOU100-20260129111742</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>SE01-20260129165511</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260129165511</t>
+  </si>
+  <si>
+    <t>DA02-20260129165511</t>
+  </si>
+  <si>
+    <t>Product Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>PM03-20260129165511</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>SM04-20260129165511</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>MS05-20260129165511</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>HR06-20260129165511</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260129165511</t>
+  </si>
+  <si>
+    <t>FA07-20260129165511</t>
+  </si>
+  <si>
+    <t>Accountant 20260129165511</t>
+  </si>
+  <si>
+    <t>AC08-20260129165511</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260129165511</t>
+  </si>
+  <si>
+    <t>CS09-20260129165511</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>OM10-20260129165511</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>QA11-20260129165511</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>DO12-20260129165511</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260129165511</t>
+  </si>
+  <si>
+    <t>BA13-20260129165511</t>
+  </si>
+  <si>
+    <t>Project Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>PJM14-20260129165511</t>
+  </si>
+  <si>
+    <t>UX Designer 20260129165511</t>
+  </si>
+  <si>
+    <t>UX15-20260129165511</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260129165511</t>
+  </si>
+  <si>
+    <t>GD16-20260129165511</t>
+  </si>
+  <si>
+    <t>Content Writer 20260129165511</t>
+  </si>
+  <si>
+    <t>CW17-20260129165511</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260129165511</t>
+  </si>
+  <si>
+    <t>NA18-20260129165511</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260129165511</t>
+  </si>
+  <si>
+    <t>DBA19-20260129165511</t>
+  </si>
+  <si>
+    <t>System Administrator 20260129165511</t>
+  </si>
+  <si>
+    <t>SA20-20260129165511</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260129165511</t>
+  </si>
+  <si>
+    <t>CA21-20260129165511</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260129165511</t>
+  </si>
+  <si>
+    <t>LC22-20260129165511</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260129165511</t>
+  </si>
+  <si>
+    <t>CO23-20260129165511</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>SCM24-20260129165511</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260129165511</t>
+  </si>
+  <si>
+    <t>LOG25-20260129165511</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>PS26-20260129165511</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260129165511</t>
+  </si>
+  <si>
+    <t>TC27-20260129165511</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>RS28-20260129165511</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260129165511</t>
+  </si>
+  <si>
+    <t>PA29-20260129165511</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260129165511</t>
+  </si>
+  <si>
+    <t>EA30-20260129165511</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260129165511</t>
+  </si>
+  <si>
+    <t>AA31-20260129165511</t>
+  </si>
+  <si>
+    <t>Receptionist 20260129165511</t>
+  </si>
+  <si>
+    <t>REC32-20260129165511</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260129165511</t>
+  </si>
+  <si>
+    <t>SEX33-20260129165511</t>
+  </si>
+  <si>
+    <t>Account Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>AM34-20260129165511</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>BDM35-20260129165511</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>CSM36-20260129165511</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>TS37-20260129165511</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260129165511</t>
+  </si>
+  <si>
+    <t>HD38-20260129165511</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>MM39-20260129165511</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>BM40-20260129165511</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>SMM41-20260129165511</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>SEO42-20260129165511</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>PR43-20260129165511</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>COM44-20260129165511</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260129165511</t>
+  </si>
+  <si>
+    <t>RES45-20260129165511</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260129165511</t>
+  </si>
+  <si>
+    <t>LAB46-20260129165511</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260129165511</t>
+  </si>
+  <si>
+    <t>CRC47-20260129165511</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260129165511</t>
+  </si>
+  <si>
+    <t>PH48-20260129165511</t>
+  </si>
+  <si>
+    <t>Nurse 20260129165511</t>
+  </si>
+  <si>
+    <t>NUR49-20260129165511</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260129165511</t>
+  </si>
+  <si>
+    <t>MA50-20260129165511</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260129165511</t>
+  </si>
+  <si>
+    <t>PT51-20260129165511</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260129165511</t>
+  </si>
+  <si>
+    <t>OT52-20260129165511</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260129165511</t>
+  </si>
+  <si>
+    <t>RT53-20260129165511</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>CM54-20260129165511</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>CE55-20260129165511</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>ME56-20260129165511</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>EE57-20260129165511</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260129165511</t>
+  </si>
+  <si>
+    <t>MFE58-20260129165511</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260129165511</t>
+  </si>
+  <si>
+    <t>PRS59-20260129165511</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>WM60-20260129165511</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>INV61-20260129165511</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260129165511</t>
+  </si>
+  <si>
+    <t>MT62-20260129165511</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>FM63-20260129165511</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>EHS64-20260129165511</t>
+  </si>
+  <si>
+    <t>Security Officer 20260129165511</t>
+  </si>
+  <si>
+    <t>SO65-20260129165511</t>
+  </si>
+  <si>
+    <t>Teacher 20260129165511</t>
+  </si>
+  <si>
+    <t>TEA66-20260129165511</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>TRS67-20260129165511</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260129165511</t>
+  </si>
+  <si>
+    <t>ID68-20260129165511</t>
+  </si>
+  <si>
+    <t>Librarian 20260129165511</t>
+  </si>
+  <si>
+    <t>LIB69-20260129165511</t>
+  </si>
+  <si>
+    <t>Architect 20260129165511</t>
+  </si>
+  <si>
+    <t>ARC70-20260129165511</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260129165511</t>
+  </si>
+  <si>
+    <t>IDE71-20260129165511</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260129165511</t>
+  </si>
+  <si>
+    <t>REA72-20260129165511</t>
+  </si>
+  <si>
+    <t>Property Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>PRM73-20260129165511</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260129165511</t>
+  </si>
+  <si>
+    <t>FIA74-20260129165511</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260129165511</t>
+  </si>
+  <si>
+    <t>IA75-20260129165511</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260129165511</t>
+  </si>
+  <si>
+    <t>CRA76-20260129165511</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>RM77-20260129165511</t>
+  </si>
+  <si>
+    <t>Auditor 20260129165511</t>
+  </si>
+  <si>
+    <t>AUD78-20260129165511</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260129165511</t>
+  </si>
+  <si>
+    <t>TAX79-20260129165511</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260129165511</t>
+  </si>
+  <si>
+    <t>BUA80-20260129165511</t>
+  </si>
+  <si>
+    <t>Paralegal 20260129165511</t>
+  </si>
+  <si>
+    <t>PAR81-20260129165511</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>CTM82-20260129165511</t>
+  </si>
+  <si>
+    <t>Chef 20260129165511</t>
+  </si>
+  <si>
+    <t>CHF83-20260129165511</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>REM84-20260129165511</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260129165511</t>
+  </si>
+  <si>
+    <t>EVC85-20260129165511</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260129165511</t>
+  </si>
+  <si>
+    <t>TRC86-20260129165511</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>HM87-20260129165511</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260129165511</t>
+  </si>
+  <si>
+    <t>FA88-20260129165511</t>
+  </si>
+  <si>
+    <t>Pilot 20260129165511</t>
+  </si>
+  <si>
+    <t>PIL89-20260129165511</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260129165511</t>
+  </si>
+  <si>
+    <t>TD90-20260129165511</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260129165511</t>
+  </si>
+  <si>
+    <t>DD91-20260129165511</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>RSM92-20260129165511</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260129165511</t>
+  </si>
+  <si>
+    <t>SAL93-20260129165511</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260129165511</t>
+  </si>
+  <si>
+    <t>VM94-20260129165511</t>
+  </si>
+  <si>
+    <t>Buyer 20260129165511</t>
+  </si>
+  <si>
+    <t>BUY95-20260129165511</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>ECM96-20260129165511</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260129165511</t>
+  </si>
+  <si>
+    <t>DMM97-20260129165511</t>
+  </si>
+  <si>
+    <t>Videographer 20260129165511</t>
+  </si>
+  <si>
+    <t>VID98-20260129165511</t>
+  </si>
+  <si>
+    <t>Photographer 20260129165511</t>
+  </si>
+  <si>
+    <t>PHO99-20260129165511</t>
+  </si>
+  <si>
+    <t>Journalist 20260129165511</t>
+  </si>
+  <si>
+    <t>JOU100-20260129165511</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>SE01-20260129183618</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260129183618</t>
+  </si>
+  <si>
+    <t>DA02-20260129183618</t>
+  </si>
+  <si>
+    <t>Product Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>PM03-20260129183618</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>SM04-20260129183618</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>MS05-20260129183618</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>HR06-20260129183618</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260129183618</t>
+  </si>
+  <si>
+    <t>FA07-20260129183618</t>
+  </si>
+  <si>
+    <t>Accountant 20260129183618</t>
+  </si>
+  <si>
+    <t>AC08-20260129183618</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260129183618</t>
+  </si>
+  <si>
+    <t>CS09-20260129183618</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>OM10-20260129183618</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>QA11-20260129183618</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>DO12-20260129183618</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260129183618</t>
+  </si>
+  <si>
+    <t>BA13-20260129183618</t>
+  </si>
+  <si>
+    <t>Project Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>PJM14-20260129183618</t>
+  </si>
+  <si>
+    <t>UX Designer 20260129183618</t>
+  </si>
+  <si>
+    <t>UX15-20260129183618</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260129183618</t>
+  </si>
+  <si>
+    <t>GD16-20260129183618</t>
+  </si>
+  <si>
+    <t>Content Writer 20260129183618</t>
+  </si>
+  <si>
+    <t>CW17-20260129183618</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260129183618</t>
+  </si>
+  <si>
+    <t>NA18-20260129183618</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260129183618</t>
+  </si>
+  <si>
+    <t>DBA19-20260129183618</t>
+  </si>
+  <si>
+    <t>System Administrator 20260129183618</t>
+  </si>
+  <si>
+    <t>SA20-20260129183618</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260129183618</t>
+  </si>
+  <si>
+    <t>CA21-20260129183618</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260129183618</t>
+  </si>
+  <si>
+    <t>LC22-20260129183618</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260129183618</t>
+  </si>
+  <si>
+    <t>CO23-20260129183618</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>SCM24-20260129183618</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260129183618</t>
+  </si>
+  <si>
+    <t>LOG25-20260129183618</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>PS26-20260129183618</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260129183618</t>
+  </si>
+  <si>
+    <t>TC27-20260129183618</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>RS28-20260129183618</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260129183618</t>
+  </si>
+  <si>
+    <t>PA29-20260129183618</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260129183618</t>
+  </si>
+  <si>
+    <t>EA30-20260129183618</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260129183618</t>
+  </si>
+  <si>
+    <t>AA31-20260129183618</t>
+  </si>
+  <si>
+    <t>Receptionist 20260129183618</t>
+  </si>
+  <si>
+    <t>REC32-20260129183618</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260129183618</t>
+  </si>
+  <si>
+    <t>SEX33-20260129183618</t>
+  </si>
+  <si>
+    <t>Account Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>AM34-20260129183618</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>BDM35-20260129183618</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>CSM36-20260129183618</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>TS37-20260129183618</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260129183618</t>
+  </si>
+  <si>
+    <t>HD38-20260129183618</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>MM39-20260129183618</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>BM40-20260129183618</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>SMM41-20260129183618</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>SEO42-20260129183618</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>PR43-20260129183618</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>COM44-20260129183618</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260129183618</t>
+  </si>
+  <si>
+    <t>RES45-20260129183618</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260129183618</t>
+  </si>
+  <si>
+    <t>LAB46-20260129183618</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260129183618</t>
+  </si>
+  <si>
+    <t>CRC47-20260129183618</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260129183618</t>
+  </si>
+  <si>
+    <t>PH48-20260129183618</t>
+  </si>
+  <si>
+    <t>Nurse 20260129183618</t>
+  </si>
+  <si>
+    <t>NUR49-20260129183618</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260129183618</t>
+  </si>
+  <si>
+    <t>MA50-20260129183618</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260129183618</t>
+  </si>
+  <si>
+    <t>PT51-20260129183618</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260129183618</t>
+  </si>
+  <si>
+    <t>OT52-20260129183618</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260129183618</t>
+  </si>
+  <si>
+    <t>RT53-20260129183618</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>CM54-20260129183618</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>CE55-20260129183618</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>ME56-20260129183618</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>EE57-20260129183618</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260129183618</t>
+  </si>
+  <si>
+    <t>MFE58-20260129183618</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260129183618</t>
+  </si>
+  <si>
+    <t>PRS59-20260129183618</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>WM60-20260129183618</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>INV61-20260129183618</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260129183618</t>
+  </si>
+  <si>
+    <t>MT62-20260129183618</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>FM63-20260129183618</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>EHS64-20260129183618</t>
+  </si>
+  <si>
+    <t>Security Officer 20260129183618</t>
+  </si>
+  <si>
+    <t>SO65-20260129183618</t>
+  </si>
+  <si>
+    <t>Teacher 20260129183618</t>
+  </si>
+  <si>
+    <t>TEA66-20260129183618</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>TRS67-20260129183618</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260129183618</t>
+  </si>
+  <si>
+    <t>ID68-20260129183618</t>
+  </si>
+  <si>
+    <t>Librarian 20260129183618</t>
+  </si>
+  <si>
+    <t>LIB69-20260129183618</t>
+  </si>
+  <si>
+    <t>Architect 20260129183618</t>
+  </si>
+  <si>
+    <t>ARC70-20260129183618</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260129183618</t>
+  </si>
+  <si>
+    <t>IDE71-20260129183618</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260129183618</t>
+  </si>
+  <si>
+    <t>REA72-20260129183618</t>
+  </si>
+  <si>
+    <t>Property Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>PRM73-20260129183618</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260129183618</t>
+  </si>
+  <si>
+    <t>FIA74-20260129183618</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260129183618</t>
+  </si>
+  <si>
+    <t>IA75-20260129183618</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260129183618</t>
+  </si>
+  <si>
+    <t>CRA76-20260129183618</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>RM77-20260129183618</t>
+  </si>
+  <si>
+    <t>Auditor 20260129183618</t>
+  </si>
+  <si>
+    <t>AUD78-20260129183618</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260129183618</t>
+  </si>
+  <si>
+    <t>TAX79-20260129183618</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260129183618</t>
+  </si>
+  <si>
+    <t>BUA80-20260129183618</t>
+  </si>
+  <si>
+    <t>Paralegal 20260129183618</t>
+  </si>
+  <si>
+    <t>PAR81-20260129183618</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>CTM82-20260129183618</t>
+  </si>
+  <si>
+    <t>Chef 20260129183618</t>
+  </si>
+  <si>
+    <t>CHF83-20260129183618</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>REM84-20260129183618</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260129183618</t>
+  </si>
+  <si>
+    <t>EVC85-20260129183618</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260129183618</t>
+  </si>
+  <si>
+    <t>TRC86-20260129183618</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>HM87-20260129183618</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260129183618</t>
+  </si>
+  <si>
+    <t>FA88-20260129183618</t>
+  </si>
+  <si>
+    <t>Pilot 20260129183618</t>
+  </si>
+  <si>
+    <t>PIL89-20260129183618</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260129183618</t>
+  </si>
+  <si>
+    <t>TD90-20260129183618</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260129183618</t>
+  </si>
+  <si>
+    <t>DD91-20260129183618</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>RSM92-20260129183618</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260129183618</t>
+  </si>
+  <si>
+    <t>SAL93-20260129183618</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260129183618</t>
+  </si>
+  <si>
+    <t>VM94-20260129183618</t>
+  </si>
+  <si>
+    <t>Buyer 20260129183618</t>
+  </si>
+  <si>
+    <t>BUY95-20260129183618</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>ECM96-20260129183618</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260129183618</t>
+  </si>
+  <si>
+    <t>DMM97-20260129183618</t>
+  </si>
+  <si>
+    <t>Videographer 20260129183618</t>
+  </si>
+  <si>
+    <t>VID98-20260129183618</t>
+  </si>
+  <si>
+    <t>Photographer 20260129183618</t>
+  </si>
+  <si>
+    <t>PHO99-20260129183618</t>
+  </si>
+  <si>
+    <t>Journalist 20260129183618</t>
+  </si>
+  <si>
+    <t>JOU100-20260129183618</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>SE01-20260129185606</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260129185606</t>
+  </si>
+  <si>
+    <t>DA02-20260129185606</t>
+  </si>
+  <si>
+    <t>Product Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>PM03-20260129185606</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>SM04-20260129185606</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>MS05-20260129185606</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>HR06-20260129185606</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260129185606</t>
+  </si>
+  <si>
+    <t>FA07-20260129185606</t>
+  </si>
+  <si>
+    <t>Accountant 20260129185606</t>
+  </si>
+  <si>
+    <t>AC08-20260129185606</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260129185606</t>
+  </si>
+  <si>
+    <t>CS09-20260129185606</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>OM10-20260129185606</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>QA11-20260129185606</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>DO12-20260129185606</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260129185606</t>
+  </si>
+  <si>
+    <t>BA13-20260129185606</t>
+  </si>
+  <si>
+    <t>Project Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>PJM14-20260129185606</t>
+  </si>
+  <si>
+    <t>UX Designer 20260129185606</t>
+  </si>
+  <si>
+    <t>UX15-20260129185606</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260129185606</t>
+  </si>
+  <si>
+    <t>GD16-20260129185606</t>
+  </si>
+  <si>
+    <t>Content Writer 20260129185606</t>
+  </si>
+  <si>
+    <t>CW17-20260129185606</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260129185606</t>
+  </si>
+  <si>
+    <t>NA18-20260129185606</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260129185606</t>
+  </si>
+  <si>
+    <t>DBA19-20260129185606</t>
+  </si>
+  <si>
+    <t>System Administrator 20260129185606</t>
+  </si>
+  <si>
+    <t>SA20-20260129185606</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260129185606</t>
+  </si>
+  <si>
+    <t>CA21-20260129185606</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260129185606</t>
+  </si>
+  <si>
+    <t>LC22-20260129185606</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260129185606</t>
+  </si>
+  <si>
+    <t>CO23-20260129185606</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>SCM24-20260129185606</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260129185606</t>
+  </si>
+  <si>
+    <t>LOG25-20260129185606</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>PS26-20260129185606</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260129185606</t>
+  </si>
+  <si>
+    <t>TC27-20260129185606</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>RS28-20260129185606</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260129185606</t>
+  </si>
+  <si>
+    <t>PA29-20260129185606</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260129185606</t>
+  </si>
+  <si>
+    <t>EA30-20260129185606</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260129185606</t>
+  </si>
+  <si>
+    <t>AA31-20260129185606</t>
+  </si>
+  <si>
+    <t>Receptionist 20260129185606</t>
+  </si>
+  <si>
+    <t>REC32-20260129185606</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260129185606</t>
+  </si>
+  <si>
+    <t>SEX33-20260129185606</t>
+  </si>
+  <si>
+    <t>Account Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>AM34-20260129185606</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>BDM35-20260129185606</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>CSM36-20260129185606</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>TS37-20260129185606</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260129185606</t>
+  </si>
+  <si>
+    <t>HD38-20260129185606</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>MM39-20260129185606</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>BM40-20260129185606</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>SMM41-20260129185606</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>SEO42-20260129185606</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>PR43-20260129185606</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>COM44-20260129185606</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260129185606</t>
+  </si>
+  <si>
+    <t>RES45-20260129185606</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260129185606</t>
+  </si>
+  <si>
+    <t>LAB46-20260129185606</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260129185606</t>
+  </si>
+  <si>
+    <t>CRC47-20260129185606</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260129185606</t>
+  </si>
+  <si>
+    <t>PH48-20260129185606</t>
+  </si>
+  <si>
+    <t>Nurse 20260129185606</t>
+  </si>
+  <si>
+    <t>NUR49-20260129185606</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260129185606</t>
+  </si>
+  <si>
+    <t>MA50-20260129185606</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260129185606</t>
+  </si>
+  <si>
+    <t>PT51-20260129185606</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260129185606</t>
+  </si>
+  <si>
+    <t>OT52-20260129185606</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260129185606</t>
+  </si>
+  <si>
+    <t>RT53-20260129185606</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>CM54-20260129185606</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>CE55-20260129185606</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>ME56-20260129185606</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>EE57-20260129185606</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260129185606</t>
+  </si>
+  <si>
+    <t>MFE58-20260129185606</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260129185606</t>
+  </si>
+  <si>
+    <t>PRS59-20260129185606</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>WM60-20260129185606</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>INV61-20260129185606</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260129185606</t>
+  </si>
+  <si>
+    <t>MT62-20260129185606</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>FM63-20260129185606</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>EHS64-20260129185606</t>
+  </si>
+  <si>
+    <t>Security Officer 20260129185606</t>
+  </si>
+  <si>
+    <t>SO65-20260129185606</t>
+  </si>
+  <si>
+    <t>Teacher 20260129185606</t>
+  </si>
+  <si>
+    <t>TEA66-20260129185606</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>TRS67-20260129185606</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260129185606</t>
+  </si>
+  <si>
+    <t>ID68-20260129185606</t>
+  </si>
+  <si>
+    <t>Librarian 20260129185606</t>
+  </si>
+  <si>
+    <t>LIB69-20260129185606</t>
+  </si>
+  <si>
+    <t>Architect 20260129185606</t>
+  </si>
+  <si>
+    <t>ARC70-20260129185606</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260129185606</t>
+  </si>
+  <si>
+    <t>IDE71-20260129185606</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260129185606</t>
+  </si>
+  <si>
+    <t>REA72-20260129185606</t>
+  </si>
+  <si>
+    <t>Property Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>PRM73-20260129185606</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260129185606</t>
+  </si>
+  <si>
+    <t>FIA74-20260129185606</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260129185606</t>
+  </si>
+  <si>
+    <t>IA75-20260129185606</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260129185606</t>
+  </si>
+  <si>
+    <t>CRA76-20260129185606</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>RM77-20260129185606</t>
+  </si>
+  <si>
+    <t>Auditor 20260129185606</t>
+  </si>
+  <si>
+    <t>AUD78-20260129185606</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260129185606</t>
+  </si>
+  <si>
+    <t>TAX79-20260129185606</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260129185606</t>
+  </si>
+  <si>
+    <t>BUA80-20260129185606</t>
+  </si>
+  <si>
+    <t>Paralegal 20260129185606</t>
+  </si>
+  <si>
+    <t>PAR81-20260129185606</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>CTM82-20260129185606</t>
+  </si>
+  <si>
+    <t>Chef 20260129185606</t>
+  </si>
+  <si>
+    <t>CHF83-20260129185606</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>REM84-20260129185606</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260129185606</t>
+  </si>
+  <si>
+    <t>EVC85-20260129185606</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260129185606</t>
+  </si>
+  <si>
+    <t>TRC86-20260129185606</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>HM87-20260129185606</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260129185606</t>
+  </si>
+  <si>
+    <t>FA88-20260129185606</t>
+  </si>
+  <si>
+    <t>Pilot 20260129185606</t>
+  </si>
+  <si>
+    <t>PIL89-20260129185606</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260129185606</t>
+  </si>
+  <si>
+    <t>TD90-20260129185606</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260129185606</t>
+  </si>
+  <si>
+    <t>DD91-20260129185606</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>RSM92-20260129185606</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260129185606</t>
+  </si>
+  <si>
+    <t>SAL93-20260129185606</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260129185606</t>
+  </si>
+  <si>
+    <t>VM94-20260129185606</t>
+  </si>
+  <si>
+    <t>Buyer 20260129185606</t>
+  </si>
+  <si>
+    <t>BUY95-20260129185606</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>ECM96-20260129185606</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260129185606</t>
+  </si>
+  <si>
+    <t>DMM97-20260129185606</t>
+  </si>
+  <si>
+    <t>Videographer 20260129185606</t>
+  </si>
+  <si>
+    <t>VID98-20260129185606</t>
+  </si>
+  <si>
+    <t>Photographer 20260129185606</t>
+  </si>
+  <si>
+    <t>PHO99-20260129185606</t>
+  </si>
+  <si>
+    <t>Journalist 20260129185606</t>
+  </si>
+  <si>
+    <t>JOU100-20260129185606</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>SE01-20260129190517</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260129190517</t>
+  </si>
+  <si>
+    <t>DA02-20260129190517</t>
+  </si>
+  <si>
+    <t>Product Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>PM03-20260129190517</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>SM04-20260129190517</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>MS05-20260129190517</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>HR06-20260129190517</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260129190517</t>
+  </si>
+  <si>
+    <t>FA07-20260129190517</t>
+  </si>
+  <si>
+    <t>Accountant 20260129190517</t>
+  </si>
+  <si>
+    <t>AC08-20260129190517</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260129190517</t>
+  </si>
+  <si>
+    <t>CS09-20260129190517</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>OM10-20260129190517</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>QA11-20260129190517</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>DO12-20260129190517</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260129190517</t>
+  </si>
+  <si>
+    <t>BA13-20260129190517</t>
+  </si>
+  <si>
+    <t>Project Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>PJM14-20260129190517</t>
+  </si>
+  <si>
+    <t>UX Designer 20260129190517</t>
+  </si>
+  <si>
+    <t>UX15-20260129190517</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260129190517</t>
+  </si>
+  <si>
+    <t>GD16-20260129190517</t>
+  </si>
+  <si>
+    <t>Content Writer 20260129190517</t>
+  </si>
+  <si>
+    <t>CW17-20260129190517</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260129190517</t>
+  </si>
+  <si>
+    <t>NA18-20260129190517</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260129190517</t>
+  </si>
+  <si>
+    <t>DBA19-20260129190517</t>
+  </si>
+  <si>
+    <t>System Administrator 20260129190517</t>
+  </si>
+  <si>
+    <t>SA20-20260129190517</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260129190517</t>
+  </si>
+  <si>
+    <t>CA21-20260129190517</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260129190517</t>
+  </si>
+  <si>
+    <t>LC22-20260129190517</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260129190517</t>
+  </si>
+  <si>
+    <t>CO23-20260129190517</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>SCM24-20260129190517</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260129190517</t>
+  </si>
+  <si>
+    <t>LOG25-20260129190517</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>PS26-20260129190517</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260129190517</t>
+  </si>
+  <si>
+    <t>TC27-20260129190517</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>RS28-20260129190517</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260129190517</t>
+  </si>
+  <si>
+    <t>PA29-20260129190517</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260129190517</t>
+  </si>
+  <si>
+    <t>EA30-20260129190517</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260129190517</t>
+  </si>
+  <si>
+    <t>AA31-20260129190517</t>
+  </si>
+  <si>
+    <t>Receptionist 20260129190517</t>
+  </si>
+  <si>
+    <t>REC32-20260129190517</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260129190517</t>
+  </si>
+  <si>
+    <t>SEX33-20260129190517</t>
+  </si>
+  <si>
+    <t>Account Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>AM34-20260129190517</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>BDM35-20260129190517</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>CSM36-20260129190517</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>TS37-20260129190517</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260129190517</t>
+  </si>
+  <si>
+    <t>HD38-20260129190517</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>MM39-20260129190517</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>BM40-20260129190517</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>SMM41-20260129190517</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>SEO42-20260129190517</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>PR43-20260129190517</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>COM44-20260129190517</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260129190517</t>
+  </si>
+  <si>
+    <t>RES45-20260129190517</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260129190517</t>
+  </si>
+  <si>
+    <t>LAB46-20260129190517</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260129190517</t>
+  </si>
+  <si>
+    <t>CRC47-20260129190517</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260129190517</t>
+  </si>
+  <si>
+    <t>PH48-20260129190517</t>
+  </si>
+  <si>
+    <t>Nurse 20260129190517</t>
+  </si>
+  <si>
+    <t>NUR49-20260129190517</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260129190517</t>
+  </si>
+  <si>
+    <t>MA50-20260129190517</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260129190517</t>
+  </si>
+  <si>
+    <t>PT51-20260129190517</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260129190517</t>
+  </si>
+  <si>
+    <t>OT52-20260129190517</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260129190517</t>
+  </si>
+  <si>
+    <t>RT53-20260129190517</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>CM54-20260129190517</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>CE55-20260129190517</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>ME56-20260129190517</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>EE57-20260129190517</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260129190517</t>
+  </si>
+  <si>
+    <t>MFE58-20260129190517</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260129190517</t>
+  </si>
+  <si>
+    <t>PRS59-20260129190517</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>WM60-20260129190517</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>INV61-20260129190517</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260129190517</t>
+  </si>
+  <si>
+    <t>MT62-20260129190517</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>FM63-20260129190517</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>EHS64-20260129190517</t>
+  </si>
+  <si>
+    <t>Security Officer 20260129190517</t>
+  </si>
+  <si>
+    <t>SO65-20260129190517</t>
+  </si>
+  <si>
+    <t>Teacher 20260129190517</t>
+  </si>
+  <si>
+    <t>TEA66-20260129190517</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>TRS67-20260129190517</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260129190517</t>
+  </si>
+  <si>
+    <t>ID68-20260129190517</t>
+  </si>
+  <si>
+    <t>Librarian 20260129190517</t>
+  </si>
+  <si>
+    <t>LIB69-20260129190517</t>
+  </si>
+  <si>
+    <t>Architect 20260129190517</t>
+  </si>
+  <si>
+    <t>ARC70-20260129190517</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260129190517</t>
+  </si>
+  <si>
+    <t>IDE71-20260129190517</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260129190517</t>
+  </si>
+  <si>
+    <t>REA72-20260129190517</t>
+  </si>
+  <si>
+    <t>Property Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>PRM73-20260129190517</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260129190517</t>
+  </si>
+  <si>
+    <t>FIA74-20260129190517</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260129190517</t>
+  </si>
+  <si>
+    <t>IA75-20260129190517</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260129190517</t>
+  </si>
+  <si>
+    <t>CRA76-20260129190517</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>RM77-20260129190517</t>
+  </si>
+  <si>
+    <t>Auditor 20260129190517</t>
+  </si>
+  <si>
+    <t>AUD78-20260129190517</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260129190517</t>
+  </si>
+  <si>
+    <t>TAX79-20260129190517</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260129190517</t>
+  </si>
+  <si>
+    <t>BUA80-20260129190517</t>
+  </si>
+  <si>
+    <t>Paralegal 20260129190517</t>
+  </si>
+  <si>
+    <t>PAR81-20260129190517</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>CTM82-20260129190517</t>
+  </si>
+  <si>
+    <t>Chef 20260129190517</t>
+  </si>
+  <si>
+    <t>CHF83-20260129190517</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>REM84-20260129190517</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260129190517</t>
+  </si>
+  <si>
+    <t>EVC85-20260129190517</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260129190517</t>
+  </si>
+  <si>
+    <t>TRC86-20260129190517</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>HM87-20260129190517</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260129190517</t>
+  </si>
+  <si>
+    <t>FA88-20260129190517</t>
+  </si>
+  <si>
+    <t>Pilot 20260129190517</t>
+  </si>
+  <si>
+    <t>PIL89-20260129190517</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260129190517</t>
+  </si>
+  <si>
+    <t>TD90-20260129190517</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260129190517</t>
+  </si>
+  <si>
+    <t>DD91-20260129190517</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>RSM92-20260129190517</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260129190517</t>
+  </si>
+  <si>
+    <t>SAL93-20260129190517</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260129190517</t>
+  </si>
+  <si>
+    <t>VM94-20260129190517</t>
+  </si>
+  <si>
+    <t>Buyer 20260129190517</t>
+  </si>
+  <si>
+    <t>BUY95-20260129190517</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>ECM96-20260129190517</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260129190517</t>
+  </si>
+  <si>
+    <t>DMM97-20260129190517</t>
+  </si>
+  <si>
+    <t>Videographer 20260129190517</t>
+  </si>
+  <si>
+    <t>VID98-20260129190517</t>
+  </si>
+  <si>
+    <t>Photographer 20260129190517</t>
+  </si>
+  <si>
+    <t>PHO99-20260129190517</t>
+  </si>
+  <si>
+    <t>Journalist 20260129190517</t>
+  </si>
+  <si>
+    <t>JOU100-20260129190517</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>SE01-20260130103358</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260130103358</t>
+  </si>
+  <si>
+    <t>DA02-20260130103358</t>
+  </si>
+  <si>
+    <t>Product Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>PM03-20260130103358</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>SM04-20260130103358</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>MS05-20260130103358</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>HR06-20260130103358</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260130103358</t>
+  </si>
+  <si>
+    <t>FA07-20260130103358</t>
+  </si>
+  <si>
+    <t>Accountant 20260130103358</t>
+  </si>
+  <si>
+    <t>AC08-20260130103358</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260130103358</t>
+  </si>
+  <si>
+    <t>CS09-20260130103358</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>OM10-20260130103358</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>QA11-20260130103358</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>DO12-20260130103358</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260130103358</t>
+  </si>
+  <si>
+    <t>BA13-20260130103358</t>
+  </si>
+  <si>
+    <t>Project Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>PJM14-20260130103358</t>
+  </si>
+  <si>
+    <t>UX Designer 20260130103358</t>
+  </si>
+  <si>
+    <t>UX15-20260130103358</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260130103358</t>
+  </si>
+  <si>
+    <t>GD16-20260130103358</t>
+  </si>
+  <si>
+    <t>Content Writer 20260130103358</t>
+  </si>
+  <si>
+    <t>CW17-20260130103358</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260130103358</t>
+  </si>
+  <si>
+    <t>NA18-20260130103358</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260130103358</t>
+  </si>
+  <si>
+    <t>DBA19-20260130103358</t>
+  </si>
+  <si>
+    <t>System Administrator 20260130103358</t>
+  </si>
+  <si>
+    <t>SA20-20260130103358</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260130103358</t>
+  </si>
+  <si>
+    <t>CA21-20260130103358</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260130103358</t>
+  </si>
+  <si>
+    <t>LC22-20260130103358</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260130103358</t>
+  </si>
+  <si>
+    <t>CO23-20260130103358</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>SCM24-20260130103358</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260130103358</t>
+  </si>
+  <si>
+    <t>LOG25-20260130103358</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>PS26-20260130103358</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260130103358</t>
+  </si>
+  <si>
+    <t>TC27-20260130103358</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>RS28-20260130103358</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260130103358</t>
+  </si>
+  <si>
+    <t>PA29-20260130103358</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260130103358</t>
+  </si>
+  <si>
+    <t>EA30-20260130103358</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260130103358</t>
+  </si>
+  <si>
+    <t>AA31-20260130103358</t>
+  </si>
+  <si>
+    <t>Receptionist 20260130103358</t>
+  </si>
+  <si>
+    <t>REC32-20260130103358</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260130103358</t>
+  </si>
+  <si>
+    <t>SEX33-20260130103358</t>
+  </si>
+  <si>
+    <t>Account Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>AM34-20260130103358</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>BDM35-20260130103358</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>CSM36-20260130103358</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>TS37-20260130103358</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260130103358</t>
+  </si>
+  <si>
+    <t>HD38-20260130103358</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>MM39-20260130103358</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>BM40-20260130103358</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>SMM41-20260130103358</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>SEO42-20260130103358</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>PR43-20260130103358</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>COM44-20260130103358</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260130103358</t>
+  </si>
+  <si>
+    <t>RES45-20260130103358</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260130103358</t>
+  </si>
+  <si>
+    <t>LAB46-20260130103358</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260130103358</t>
+  </si>
+  <si>
+    <t>CRC47-20260130103358</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260130103358</t>
+  </si>
+  <si>
+    <t>PH48-20260130103358</t>
+  </si>
+  <si>
+    <t>Nurse 20260130103358</t>
+  </si>
+  <si>
+    <t>NUR49-20260130103358</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260130103358</t>
+  </si>
+  <si>
+    <t>MA50-20260130103358</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260130103358</t>
+  </si>
+  <si>
+    <t>PT51-20260130103358</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260130103358</t>
+  </si>
+  <si>
+    <t>OT52-20260130103358</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260130103358</t>
+  </si>
+  <si>
+    <t>RT53-20260130103358</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>CM54-20260130103358</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>CE55-20260130103358</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>ME56-20260130103358</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>EE57-20260130103358</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260130103358</t>
+  </si>
+  <si>
+    <t>MFE58-20260130103358</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260130103358</t>
+  </si>
+  <si>
+    <t>PRS59-20260130103358</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>WM60-20260130103358</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>INV61-20260130103358</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260130103358</t>
+  </si>
+  <si>
+    <t>MT62-20260130103358</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>FM63-20260130103358</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>EHS64-20260130103358</t>
+  </si>
+  <si>
+    <t>Security Officer 20260130103358</t>
+  </si>
+  <si>
+    <t>SO65-20260130103358</t>
+  </si>
+  <si>
+    <t>Teacher 20260130103358</t>
+  </si>
+  <si>
+    <t>TEA66-20260130103358</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>TRS67-20260130103358</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260130103358</t>
+  </si>
+  <si>
+    <t>ID68-20260130103358</t>
+  </si>
+  <si>
+    <t>Librarian 20260130103358</t>
+  </si>
+  <si>
+    <t>LIB69-20260130103358</t>
+  </si>
+  <si>
+    <t>Architect 20260130103358</t>
+  </si>
+  <si>
+    <t>ARC70-20260130103358</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260130103358</t>
+  </si>
+  <si>
+    <t>IDE71-20260130103358</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260130103358</t>
+  </si>
+  <si>
+    <t>REA72-20260130103358</t>
+  </si>
+  <si>
+    <t>Property Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>PRM73-20260130103358</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260130103358</t>
+  </si>
+  <si>
+    <t>FIA74-20260130103358</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260130103358</t>
+  </si>
+  <si>
+    <t>IA75-20260130103358</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260130103358</t>
+  </si>
+  <si>
+    <t>CRA76-20260130103358</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>RM77-20260130103358</t>
+  </si>
+  <si>
+    <t>Auditor 20260130103358</t>
+  </si>
+  <si>
+    <t>AUD78-20260130103358</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260130103358</t>
+  </si>
+  <si>
+    <t>TAX79-20260130103358</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260130103358</t>
+  </si>
+  <si>
+    <t>BUA80-20260130103358</t>
+  </si>
+  <si>
+    <t>Paralegal 20260130103358</t>
+  </si>
+  <si>
+    <t>PAR81-20260130103358</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>CTM82-20260130103358</t>
+  </si>
+  <si>
+    <t>Chef 20260130103358</t>
+  </si>
+  <si>
+    <t>CHF83-20260130103358</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>REM84-20260130103358</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260130103358</t>
+  </si>
+  <si>
+    <t>EVC85-20260130103358</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260130103358</t>
+  </si>
+  <si>
+    <t>TRC86-20260130103358</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>HM87-20260130103358</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260130103358</t>
+  </si>
+  <si>
+    <t>FA88-20260130103358</t>
+  </si>
+  <si>
+    <t>Pilot 20260130103358</t>
+  </si>
+  <si>
+    <t>PIL89-20260130103358</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260130103358</t>
+  </si>
+  <si>
+    <t>TD90-20260130103358</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260130103358</t>
+  </si>
+  <si>
+    <t>DD91-20260130103358</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>RSM92-20260130103358</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260130103358</t>
+  </si>
+  <si>
+    <t>SAL93-20260130103358</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260130103358</t>
+  </si>
+  <si>
+    <t>VM94-20260130103358</t>
+  </si>
+  <si>
+    <t>Buyer 20260130103358</t>
+  </si>
+  <si>
+    <t>BUY95-20260130103358</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>ECM96-20260130103358</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260130103358</t>
+  </si>
+  <si>
+    <t>DMM97-20260130103358</t>
+  </si>
+  <si>
+    <t>Videographer 20260130103358</t>
+  </si>
+  <si>
+    <t>VID98-20260130103358</t>
+  </si>
+  <si>
+    <t>Photographer 20260130103358</t>
+  </si>
+  <si>
+    <t>PHO99-20260130103358</t>
+  </si>
+  <si>
+    <t>Journalist 20260130103358</t>
+  </si>
+  <si>
+    <t>JOU100-20260130103358</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>SE01-20260130155734</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260130155734</t>
+  </si>
+  <si>
+    <t>DA02-20260130155734</t>
+  </si>
+  <si>
+    <t>Product Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>PM03-20260130155734</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>SM04-20260130155734</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>MS05-20260130155734</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>HR06-20260130155734</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260130155734</t>
+  </si>
+  <si>
+    <t>FA07-20260130155734</t>
+  </si>
+  <si>
+    <t>Accountant 20260130155734</t>
+  </si>
+  <si>
+    <t>AC08-20260130155734</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260130155734</t>
+  </si>
+  <si>
+    <t>CS09-20260130155734</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>OM10-20260130155734</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>QA11-20260130155734</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>DO12-20260130155734</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260130155734</t>
+  </si>
+  <si>
+    <t>BA13-20260130155734</t>
+  </si>
+  <si>
+    <t>Project Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>PJM14-20260130155734</t>
+  </si>
+  <si>
+    <t>UX Designer 20260130155734</t>
+  </si>
+  <si>
+    <t>UX15-20260130155734</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260130155734</t>
+  </si>
+  <si>
+    <t>GD16-20260130155734</t>
+  </si>
+  <si>
+    <t>Content Writer 20260130155734</t>
+  </si>
+  <si>
+    <t>CW17-20260130155734</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260130155734</t>
+  </si>
+  <si>
+    <t>NA18-20260130155734</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260130155734</t>
+  </si>
+  <si>
+    <t>DBA19-20260130155734</t>
+  </si>
+  <si>
+    <t>System Administrator 20260130155734</t>
+  </si>
+  <si>
+    <t>SA20-20260130155734</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260130155734</t>
+  </si>
+  <si>
+    <t>CA21-20260130155734</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260130155734</t>
+  </si>
+  <si>
+    <t>LC22-20260130155734</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260130155734</t>
+  </si>
+  <si>
+    <t>CO23-20260130155734</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>SCM24-20260130155734</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260130155734</t>
+  </si>
+  <si>
+    <t>LOG25-20260130155734</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>PS26-20260130155734</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260130155734</t>
+  </si>
+  <si>
+    <t>TC27-20260130155734</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>RS28-20260130155734</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260130155734</t>
+  </si>
+  <si>
+    <t>PA29-20260130155734</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260130155734</t>
+  </si>
+  <si>
+    <t>EA30-20260130155734</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260130155734</t>
+  </si>
+  <si>
+    <t>AA31-20260130155734</t>
+  </si>
+  <si>
+    <t>Receptionist 20260130155734</t>
+  </si>
+  <si>
+    <t>REC32-20260130155734</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260130155734</t>
+  </si>
+  <si>
+    <t>SEX33-20260130155734</t>
+  </si>
+  <si>
+    <t>Account Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>AM34-20260130155734</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>BDM35-20260130155734</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>CSM36-20260130155734</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>TS37-20260130155734</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260130155734</t>
+  </si>
+  <si>
+    <t>HD38-20260130155734</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>MM39-20260130155734</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>BM40-20260130155734</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>SMM41-20260130155734</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>SEO42-20260130155734</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>PR43-20260130155734</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>COM44-20260130155734</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260130155734</t>
+  </si>
+  <si>
+    <t>RES45-20260130155734</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260130155734</t>
+  </si>
+  <si>
+    <t>LAB46-20260130155734</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260130155734</t>
+  </si>
+  <si>
+    <t>CRC47-20260130155734</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260130155734</t>
+  </si>
+  <si>
+    <t>PH48-20260130155734</t>
+  </si>
+  <si>
+    <t>Nurse 20260130155734</t>
+  </si>
+  <si>
+    <t>NUR49-20260130155734</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260130155734</t>
+  </si>
+  <si>
+    <t>MA50-20260130155734</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260130155734</t>
+  </si>
+  <si>
+    <t>PT51-20260130155734</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260130155734</t>
+  </si>
+  <si>
+    <t>OT52-20260130155734</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260130155734</t>
+  </si>
+  <si>
+    <t>RT53-20260130155734</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>CM54-20260130155734</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>CE55-20260130155734</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>ME56-20260130155734</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>EE57-20260130155734</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260130155734</t>
+  </si>
+  <si>
+    <t>MFE58-20260130155734</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260130155734</t>
+  </si>
+  <si>
+    <t>PRS59-20260130155734</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>WM60-20260130155734</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>INV61-20260130155734</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260130155734</t>
+  </si>
+  <si>
+    <t>MT62-20260130155734</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>FM63-20260130155734</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>EHS64-20260130155734</t>
+  </si>
+  <si>
+    <t>Security Officer 20260130155734</t>
+  </si>
+  <si>
+    <t>SO65-20260130155734</t>
+  </si>
+  <si>
+    <t>Teacher 20260130155734</t>
+  </si>
+  <si>
+    <t>TEA66-20260130155734</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>TRS67-20260130155734</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260130155734</t>
+  </si>
+  <si>
+    <t>ID68-20260130155734</t>
+  </si>
+  <si>
+    <t>Librarian 20260130155734</t>
+  </si>
+  <si>
+    <t>LIB69-20260130155734</t>
+  </si>
+  <si>
+    <t>Architect 20260130155734</t>
+  </si>
+  <si>
+    <t>ARC70-20260130155734</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260130155734</t>
+  </si>
+  <si>
+    <t>IDE71-20260130155734</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260130155734</t>
+  </si>
+  <si>
+    <t>REA72-20260130155734</t>
+  </si>
+  <si>
+    <t>Property Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>PRM73-20260130155734</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260130155734</t>
+  </si>
+  <si>
+    <t>FIA74-20260130155734</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260130155734</t>
+  </si>
+  <si>
+    <t>IA75-20260130155734</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260130155734</t>
+  </si>
+  <si>
+    <t>CRA76-20260130155734</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>RM77-20260130155734</t>
+  </si>
+  <si>
+    <t>Auditor 20260130155734</t>
+  </si>
+  <si>
+    <t>AUD78-20260130155734</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260130155734</t>
+  </si>
+  <si>
+    <t>TAX79-20260130155734</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260130155734</t>
+  </si>
+  <si>
+    <t>BUA80-20260130155734</t>
+  </si>
+  <si>
+    <t>Paralegal 20260130155734</t>
+  </si>
+  <si>
+    <t>PAR81-20260130155734</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>CTM82-20260130155734</t>
+  </si>
+  <si>
+    <t>Chef 20260130155734</t>
+  </si>
+  <si>
+    <t>CHF83-20260130155734</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>REM84-20260130155734</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260130155734</t>
+  </si>
+  <si>
+    <t>EVC85-20260130155734</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260130155734</t>
+  </si>
+  <si>
+    <t>TRC86-20260130155734</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>HM87-20260130155734</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260130155734</t>
+  </si>
+  <si>
+    <t>FA88-20260130155734</t>
+  </si>
+  <si>
+    <t>Pilot 20260130155734</t>
+  </si>
+  <si>
+    <t>PIL89-20260130155734</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260130155734</t>
+  </si>
+  <si>
+    <t>TD90-20260130155734</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260130155734</t>
+  </si>
+  <si>
+    <t>DD91-20260130155734</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>RSM92-20260130155734</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260130155734</t>
+  </si>
+  <si>
+    <t>SAL93-20260130155734</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260130155734</t>
+  </si>
+  <si>
+    <t>VM94-20260130155734</t>
+  </si>
+  <si>
+    <t>Buyer 20260130155734</t>
+  </si>
+  <si>
+    <t>BUY95-20260130155734</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>ECM96-20260130155734</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260130155734</t>
+  </si>
+  <si>
+    <t>DMM97-20260130155734</t>
+  </si>
+  <si>
+    <t>Videographer 20260130155734</t>
+  </si>
+  <si>
+    <t>VID98-20260130155734</t>
+  </si>
+  <si>
+    <t>Photographer 20260130155734</t>
+  </si>
+  <si>
+    <t>PHO99-20260130155734</t>
+  </si>
+  <si>
+    <t>Journalist 20260130155734</t>
+  </si>
+  <si>
+    <t>JOU100-20260130155734</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9793,23 +14594,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="1" customWidth="1"/>
-    <col min="15" max="16" width="21.6640625" style="1" customWidth="1"/>
-    <col min="17" max="21" width="255.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="27.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.5546875"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.44140625"/>
+    <col min="4" max="4" customWidth="true" style="1" width="22.33203125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="26.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="26.6640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="38.21875"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.88671875"/>
+    <col min="9" max="9" customWidth="true" style="1" width="25.0"/>
+    <col min="10" max="10" customWidth="true" style="1" width="27.44140625"/>
+    <col min="11" max="11" customWidth="true" style="1" width="16.109375"/>
+    <col min="12" max="12" customWidth="true" style="1" width="18.6640625"/>
+    <col min="13" max="13" customWidth="true" style="1" width="17.109375"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.0"/>
+    <col min="15" max="16" customWidth="true" style="1" width="21.6640625"/>
+    <col min="17" max="21" customWidth="true" style="1" width="255.6640625"/>
+    <col min="22" max="16384" style="1" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -10280,10 +15081,10 @@
     </row>
     <row r="7" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>2755</v>
+        <v>4355</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2756</v>
+        <v>4356</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>134</v>
@@ -10335,10 +15136,10 @@
     </row>
     <row r="8" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>2757</v>
+        <v>4357</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2758</v>
+        <v>4358</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2371</v>
@@ -10390,10 +15191,10 @@
     </row>
     <row r="9" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>2759</v>
+        <v>4359</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2760</v>
+        <v>4360</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2374</v>
@@ -10443,10 +15244,10 @@
     </row>
     <row r="10" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>2761</v>
+        <v>4361</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2762</v>
+        <v>4362</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>220</v>
@@ -10494,10 +15295,10 @@
     </row>
     <row r="11" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>2763</v>
+        <v>4363</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2764</v>
+        <v>4364</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>187</v>
@@ -10549,10 +15350,10 @@
     </row>
     <row r="12" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>2765</v>
+        <v>4365</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2766</v>
+        <v>4366</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1106</v>
@@ -10604,10 +15405,10 @@
     </row>
     <row r="13" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>2767</v>
+        <v>4367</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2768</v>
+        <v>4368</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>306</v>
@@ -10659,10 +15460,10 @@
     </row>
     <row r="14" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>2769</v>
+        <v>4369</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2770</v>
+        <v>4370</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>306</v>
@@ -10714,10 +15515,10 @@
     </row>
     <row r="15" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>2771</v>
+        <v>4371</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2772</v>
+        <v>4372</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>130</v>
@@ -10767,10 +15568,10 @@
     </row>
     <row r="16" spans="1:159" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>2773</v>
+        <v>4373</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2774</v>
+        <v>4374</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2384</v>
@@ -10822,10 +15623,10 @@
     </row>
     <row r="17" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>2775</v>
+        <v>4375</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2776</v>
+        <v>4376</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>134</v>
@@ -10871,10 +15672,10 @@
     </row>
     <row r="18" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>2777</v>
+        <v>4377</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2778</v>
+        <v>4378</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>134</v>
@@ -10926,10 +15727,10 @@
     </row>
     <row r="19" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>2779</v>
+        <v>4379</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2780</v>
+        <v>4380</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2371</v>
@@ -10981,10 +15782,10 @@
     </row>
     <row r="20" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>2781</v>
+        <v>4381</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2782</v>
+        <v>4382</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2391</v>
@@ -11036,10 +15837,10 @@
     </row>
     <row r="21" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>2783</v>
+        <v>4383</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2784</v>
+        <v>4384</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2393</v>
@@ -11091,10 +15892,10 @@
     </row>
     <row r="22" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>2785</v>
+        <v>4385</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2786</v>
+        <v>4386</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2393</v>
@@ -11142,10 +15943,10 @@
     </row>
     <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>2787</v>
+        <v>4387</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2788</v>
+        <v>4388</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>187</v>
@@ -11197,10 +15998,10 @@
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>2789</v>
+        <v>4389</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2790</v>
+        <v>4390</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>1124</v>
@@ -11252,10 +16053,10 @@
     </row>
     <row r="25" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>2791</v>
+        <v>4391</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2792</v>
+        <v>4392</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1124</v>
@@ -11299,10 +16100,10 @@
     </row>
     <row r="26" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>2793</v>
+        <v>4393</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2794</v>
+        <v>4394</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1124</v>
@@ -11354,10 +16155,10 @@
     </row>
     <row r="27" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>2795</v>
+        <v>4395</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2796</v>
+        <v>4396</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>1124</v>
@@ -11409,10 +16210,10 @@
     </row>
     <row r="28" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>2797</v>
+        <v>4397</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2798</v>
+        <v>4398</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>176</v>
@@ -11464,10 +16265,10 @@
     </row>
     <row r="29" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>2799</v>
+        <v>4399</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2410</v>
@@ -11519,10 +16320,10 @@
     </row>
     <row r="30" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>2801</v>
+        <v>4401</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2802</v>
+        <v>4402</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2414</v>
@@ -11572,10 +16373,10 @@
     </row>
     <row r="31" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>2803</v>
+        <v>4403</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2804</v>
+        <v>4404</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2416</v>
@@ -11627,10 +16428,10 @@
     </row>
     <row r="32" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>2805</v>
+        <v>4405</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2806</v>
+        <v>4406</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2418</v>
@@ -11682,10 +16483,10 @@
     </row>
     <row r="33" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>2807</v>
+        <v>4407</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2808</v>
+        <v>4408</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>1106</v>
@@ -11737,10 +16538,10 @@
     </row>
     <row r="34" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>2809</v>
+        <v>4409</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2810</v>
+        <v>4410</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1106</v>
@@ -11792,10 +16593,10 @@
     </row>
     <row r="35" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>2811</v>
+        <v>4411</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2812</v>
+        <v>4412</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1106</v>
@@ -11847,10 +16648,10 @@
     </row>
     <row r="36" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>2813</v>
+        <v>4413</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2814</v>
+        <v>4414</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2425</v>
@@ -11902,10 +16703,10 @@
     </row>
     <row r="37" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>2815</v>
+        <v>4415</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2816</v>
+        <v>4416</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2425</v>
@@ -11955,10 +16756,10 @@
     </row>
     <row r="38" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>2817</v>
+        <v>4417</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2818</v>
+        <v>4418</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2425</v>
@@ -12010,10 +16811,10 @@
     </row>
     <row r="39" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>2819</v>
+        <v>4419</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2820</v>
+        <v>4420</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>220</v>
@@ -12065,10 +16866,10 @@
     </row>
     <row r="40" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>2821</v>
+        <v>4421</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2822</v>
+        <v>4422</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>220</v>
@@ -12120,10 +16921,10 @@
     </row>
     <row r="41" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>2823</v>
+        <v>4423</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2824</v>
+        <v>4424</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>220</v>
@@ -12175,10 +16976,10 @@
     </row>
     <row r="42" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>2825</v>
+        <v>4425</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2826</v>
+        <v>4426</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>130</v>
@@ -12228,10 +17029,10 @@
     </row>
     <row r="43" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>2827</v>
+        <v>4427</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2828</v>
+        <v>4428</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2434</v>
@@ -12283,10 +17084,10 @@
     </row>
     <row r="44" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>2829</v>
+        <v>4429</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2830</v>
+        <v>4430</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2434</v>
@@ -12338,10 +17139,10 @@
     </row>
     <row r="45" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>2831</v>
+        <v>4431</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2832</v>
+        <v>4432</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>187</v>
@@ -12393,10 +17194,10 @@
     </row>
     <row r="46" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>2833</v>
+        <v>4433</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2834</v>
+        <v>4434</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>187</v>
@@ -12448,10 +17249,10 @@
     </row>
     <row r="47" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>2835</v>
+        <v>4435</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2836</v>
+        <v>4436</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>187</v>
@@ -12503,10 +17304,10 @@
     </row>
     <row r="48" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>2837</v>
+        <v>4437</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2838</v>
+        <v>4438</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>187</v>
@@ -12556,10 +17357,10 @@
     </row>
     <row r="49" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>2839</v>
+        <v>4439</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2840</v>
+        <v>4440</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>30</v>
@@ -12611,10 +17412,10 @@
     </row>
     <row r="50" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>2841</v>
+        <v>4441</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2842</v>
+        <v>4442</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -12666,10 +17467,10 @@
     </row>
     <row r="51" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>2843</v>
+        <v>4443</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2844</v>
+        <v>4444</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>422</v>
@@ -12721,10 +17522,10 @@
     </row>
     <row r="52" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>2845</v>
+        <v>4445</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2846</v>
+        <v>4446</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>422</v>
@@ -12776,10 +17577,10 @@
     </row>
     <row r="53" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>2847</v>
+        <v>4447</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2848</v>
+        <v>4448</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>422</v>
@@ -12831,10 +17632,10 @@
     </row>
     <row r="54" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>2849</v>
+        <v>4449</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2850</v>
+        <v>4450</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -12874,10 +17675,10 @@
     </row>
     <row r="55" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>2851</v>
+        <v>4451</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2852</v>
+        <v>4452</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>2445</v>
@@ -12929,10 +17730,10 @@
     </row>
     <row r="56" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>2853</v>
+        <v>4453</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2854</v>
+        <v>4454</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2445</v>
@@ -12984,10 +17785,10 @@
     </row>
     <row r="57" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>2855</v>
+        <v>4455</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2856</v>
+        <v>4456</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2445</v>
@@ -13039,10 +17840,10 @@
     </row>
     <row r="58" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>2857</v>
+        <v>4457</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2858</v>
+        <v>4458</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2445</v>
@@ -13094,10 +17895,10 @@
     </row>
     <row r="59" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>2859</v>
+        <v>4459</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>2860</v>
+        <v>4460</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
@@ -13145,10 +17946,10 @@
     </row>
     <row r="60" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>2861</v>
+        <v>4461</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2862</v>
+        <v>4462</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>727</v>
@@ -13200,10 +18001,10 @@
     </row>
     <row r="61" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>2863</v>
+        <v>4463</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2864</v>
+        <v>4464</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>134</v>
@@ -13255,10 +18056,10 @@
     </row>
     <row r="62" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>2865</v>
+        <v>4465</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2866</v>
+        <v>4466</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>134</v>
@@ -13310,10 +18111,10 @@
     </row>
     <row r="63" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>2867</v>
+        <v>4467</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>2868</v>
+        <v>4468</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>134</v>
@@ -13361,10 +18162,10 @@
     </row>
     <row r="64" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>2869</v>
+        <v>4469</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>2870</v>
+        <v>4470</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
@@ -13412,10 +18213,10 @@
     </row>
     <row r="65" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>2871</v>
+        <v>4471</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>2872</v>
+        <v>4472</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>204</v>
@@ -13467,10 +18268,10 @@
     </row>
     <row r="66" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>2873</v>
+        <v>4473</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>2874</v>
+        <v>4474</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2460</v>
@@ -13522,10 +18323,10 @@
     </row>
     <row r="67" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>2875</v>
+        <v>4475</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>2876</v>
+        <v>4476</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2463</v>
@@ -13577,10 +18378,10 @@
     </row>
     <row r="68" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>2877</v>
+        <v>4477</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>2878</v>
+        <v>4478</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>562</v>
@@ -13632,10 +18433,10 @@
     </row>
     <row r="69" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>2879</v>
+        <v>4479</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2880</v>
+        <v>4480</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2470</v>
@@ -13685,10 +18486,10 @@
     </row>
     <row r="70" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>2881</v>
+        <v>4481</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>2882</v>
+        <v>4482</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2472</v>
@@ -13740,10 +18541,10 @@
     </row>
     <row r="71" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>2883</v>
+        <v>4483</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>2884</v>
+        <v>4484</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>400</v>
@@ -13795,10 +18596,10 @@
     </row>
     <row r="72" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>2885</v>
+        <v>4485</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>2886</v>
+        <v>4486</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>543</v>
@@ -13850,10 +18651,10 @@
     </row>
     <row r="73" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>2887</v>
+        <v>4487</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>2888</v>
+        <v>4488</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -13903,10 +18704,10 @@
     </row>
     <row r="74" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>2889</v>
+        <v>4489</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>2890</v>
+        <v>4490</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2479</v>
@@ -13958,10 +18759,10 @@
     </row>
     <row r="75" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>2891</v>
+        <v>4491</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>2892</v>
+        <v>4492</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>543</v>
@@ -14013,10 +18814,10 @@
     </row>
     <row r="76" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>2893</v>
+        <v>4493</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>2894</v>
+        <v>4494</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2484</v>
@@ -14068,10 +18869,10 @@
     </row>
     <row r="77" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>2895</v>
+        <v>4495</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>2896</v>
+        <v>4496</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2393</v>
@@ -14123,10 +18924,10 @@
     </row>
     <row r="78" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>2897</v>
+        <v>4497</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>2898</v>
+        <v>4498</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>216</v>
@@ -14178,10 +18979,10 @@
     </row>
     <row r="79" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>2899</v>
+        <v>4499</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>216</v>
@@ -14233,10 +19034,10 @@
     </row>
     <row r="80" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>2901</v>
+        <v>4501</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>2902</v>
+        <v>4502</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>306</v>
@@ -14288,10 +19089,10 @@
     </row>
     <row r="81" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>2903</v>
+        <v>4503</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>2904</v>
+        <v>4504</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -14337,10 +19138,10 @@
     </row>
     <row r="82" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>2905</v>
+        <v>4505</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>2906</v>
+        <v>4506</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>306</v>
@@ -14392,10 +19193,10 @@
     </row>
     <row r="83" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>2907</v>
+        <v>4507</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>2908</v>
+        <v>4508</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>2493</v>
@@ -14447,10 +19248,10 @@
     </row>
     <row r="84" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>2909</v>
+        <v>4509</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>2910</v>
+        <v>4510</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>2495</v>
@@ -14502,10 +19303,10 @@
     </row>
     <row r="85" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>2911</v>
+        <v>4511</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>2912</v>
+        <v>4512</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>306</v>
@@ -14557,10 +19358,10 @@
     </row>
     <row r="86" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>2913</v>
+        <v>4513</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>2914</v>
+        <v>4514</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>306</v>
@@ -14612,10 +19413,10 @@
     </row>
     <row r="87" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>2915</v>
+        <v>4515</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>2916</v>
+        <v>4516</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>176</v>
@@ -14667,10 +19468,10 @@
     </row>
     <row r="88" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>2917</v>
+        <v>4517</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>2918</v>
+        <v>4518</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>176</v>
@@ -14722,10 +19523,10 @@
     </row>
     <row r="89" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>2919</v>
+        <v>4519</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>2920</v>
+        <v>4520</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>2505</v>
@@ -14777,10 +19578,10 @@
     </row>
     <row r="90" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>2921</v>
+        <v>4521</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>2922</v>
+        <v>4522</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -14828,10 +19629,10 @@
     </row>
     <row r="91" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>2923</v>
+        <v>4523</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>2924</v>
+        <v>4524</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>2511</v>
@@ -14883,10 +19684,10 @@
     </row>
     <row r="92" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>2925</v>
+        <v>4525</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>2926</v>
+        <v>4526</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>2514</v>
@@ -14938,10 +19739,10 @@
     </row>
     <row r="93" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>2927</v>
+        <v>4527</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>2928</v>
+        <v>4528</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>2507</v>
@@ -14993,10 +19794,10 @@
     </row>
     <row r="94" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>2929</v>
+        <v>4529</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>2930</v>
+        <v>4530</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>2517</v>
@@ -15046,10 +19847,10 @@
     </row>
     <row r="95" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>2931</v>
+        <v>4531</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>2932</v>
+        <v>4532</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>2517</v>
@@ -15101,10 +19902,10 @@
     </row>
     <row r="96" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>2933</v>
+        <v>4533</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>2934</v>
+        <v>4534</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>401</v>
@@ -15156,10 +19957,10 @@
     </row>
     <row r="97" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>2935</v>
+        <v>4535</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>2936</v>
+        <v>4536</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>401</v>
@@ -15211,10 +20012,10 @@
     </row>
     <row r="98" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>2937</v>
+        <v>4537</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>2938</v>
+        <v>4538</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>66</v>
@@ -15266,10 +20067,10 @@
     </row>
     <row r="99" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>2939</v>
+        <v>4539</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>2940</v>
+        <v>4540</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>66</v>
@@ -15321,10 +20122,10 @@
     </row>
     <row r="100" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>2941</v>
+        <v>4541</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>2942</v>
+        <v>4542</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>66</v>
@@ -15376,10 +20177,10 @@
     </row>
     <row r="101" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>2943</v>
+        <v>4543</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>2944</v>
+        <v>4544</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>66</v>
@@ -15425,10 +20226,10 @@
     </row>
     <row r="102" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>2945</v>
+        <v>4545</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>2946</v>
+        <v>4546</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>2529</v>
@@ -15480,10 +20281,10 @@
     </row>
     <row r="103" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>2947</v>
+        <v>4547</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>2948</v>
+        <v>4548</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>187</v>
@@ -15535,10 +20336,10 @@
     </row>
     <row r="104" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>2949</v>
+        <v>4549</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2950</v>
+        <v>4550</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>43</v>
@@ -15590,10 +20391,10 @@
     </row>
     <row r="105" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>2951</v>
+        <v>4551</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>2952</v>
+        <v>4552</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>43</v>
@@ -15643,10 +20444,10 @@
     </row>
     <row r="106" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>2953</v>
+        <v>4553</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>2954</v>
+        <v>4554</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>43</v>
@@ -26883,13 +31684,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="58.88671875"/>
+    <col min="3" max="3" customWidth="true" width="38.88671875"/>
+    <col min="4" max="4" customWidth="true" width="42.21875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.21875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -34487,9 +39288,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="9" max="9" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="34.109375"/>
+    <col min="6" max="6" customWidth="true" width="32.33203125"/>
+    <col min="9" max="9" customWidth="true" width="39.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
@@ -38421,18 +43222,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="6.88671875" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875"/>
+    <col min="5" max="5" customWidth="true" width="11.33203125"/>
+    <col min="6" max="6" customWidth="true" width="16.109375"/>
+    <col min="7" max="7" customWidth="true" width="7.21875"/>
+    <col min="8" max="8" customWidth="true" width="7.44140625"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625"/>
+    <col min="10" max="10" customWidth="true" width="17.33203125"/>
+    <col min="12" max="12" customWidth="true" width="6.88671875"/>
+    <col min="13" max="13" customWidth="true" width="5.33203125"/>
+    <col min="14" max="14" customWidth="true" width="20.21875"/>
+    <col min="15" max="15" customWidth="true" width="12.109375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
@@ -65031,1027 +69832,1027 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>2162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>2165</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>2166</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>2167</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>2168</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>2169</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>2170</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>2171</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>2172</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>2173</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>2174</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>2175</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>2176</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>2177</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>2178</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>2179</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>2180</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>2181</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>2182</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>2183</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>2184</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>2185</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>2186</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>2187</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>2188</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>2189</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>2190</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>2191</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>2192</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>2193</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>2194</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>2195</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>2196</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>2197</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>2198</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>2199</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>2200</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>2201</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>2202</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>2203</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>2204</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>2205</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>2206</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>2207</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>2208</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>2209</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>2210</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>2211</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>2212</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>2213</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>2214</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>2215</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>2216</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>2217</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>2218</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>2219</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>2220</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>2221</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>2222</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>2223</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>2224</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>2225</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>2226</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>2227</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>2228</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>2229</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>2230</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>2231</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>2232</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>2233</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>2234</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>2235</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>2236</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>2237</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>2238</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>2239</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>2240</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>2241</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>2242</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>2243</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>2244</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>2245</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>2246</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>2247</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>2248</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>2249</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>2250</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>2251</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>2252</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>2253</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>2254</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>2255</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>2256</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>2257</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>2258</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>2259</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>2260</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>2261</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>2262</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>2263</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>2264</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>2265</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>2266</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>2267</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>2268</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>2269</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>2270</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>2271</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>2272</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>2273</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>2274</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>2275</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>2276</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>2277</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="0">
         <v>2278</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>2279</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>2280</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>2281</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="0">
         <v>2282</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>2283</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>2284</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>2285</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>2286</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>2287</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>2288</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>2289</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>2290</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>2291</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>2292</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>2293</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>2294</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>2295</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>2296</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>2297</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>2298</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>2299</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>2300</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>2301</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="0">
         <v>2302</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="0">
         <v>2303</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>2304</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="0">
         <v>2305</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" t="s" s="0">
         <v>2306</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="0">
         <v>2307</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" t="s" s="0">
         <v>2308</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" t="s" s="0">
         <v>2309</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="0">
         <v>2310</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="0">
         <v>2311</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" t="s" s="0">
         <v>2312</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" t="s" s="0">
         <v>2313</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" t="s" s="0">
         <v>2314</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="0">
         <v>2315</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" t="s" s="0">
         <v>2316</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" t="s" s="0">
         <v>2317</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="0">
         <v>2318</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" t="s" s="0">
         <v>2319</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" t="s" s="0">
         <v>2320</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" t="s" s="0">
         <v>2321</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="0">
         <v>2322</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" t="s" s="0">
         <v>2323</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="0">
         <v>2324</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="0">
         <v>2325</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" t="s" s="0">
         <v>2326</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="0">
         <v>2327</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" t="s" s="0">
         <v>2328</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="0">
         <v>2329</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="0">
         <v>2330</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="0">
         <v>2331</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" t="s" s="0">
         <v>2332</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="0">
         <v>2333</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="0">
         <v>2334</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" t="s" s="0">
         <v>2335</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" t="s" s="0">
         <v>2336</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="0">
         <v>2337</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" t="s" s="0">
         <v>2338</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" t="s" s="0">
         <v>2339</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" t="s" s="0">
         <v>2340</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" t="s" s="0">
         <v>2341</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" t="s" s="0">
         <v>2342</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" t="s" s="0">
         <v>2343</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" t="s" s="0">
         <v>2344</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" t="s" s="0">
         <v>2345</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" t="s" s="0">
         <v>2346</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" t="s" s="0">
         <v>2347</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" t="s" s="0">
         <v>2348</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" t="s" s="0">
         <v>2349</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" t="s" s="0">
         <v>2350</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" t="s" s="0">
         <v>2351</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" t="s" s="0">
         <v>2352</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" t="s" s="0">
         <v>2353</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" t="s" s="0">
         <v>2354</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" t="s" s="0">
         <v>2355</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" t="s" s="0">
         <v>2356</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" t="s" s="0">
         <v>2357</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" t="s" s="0">
         <v>2358</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" t="s" s="0">
         <v>2359</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" t="s" s="0">
         <v>2360</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" t="s" s="0">
         <v>2361</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" t="s" s="0">
         <v>2362</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" t="s" s="0">
         <v>2363</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" t="s" s="0">
         <v>2364</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" t="s" s="0">
         <v>2365</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" t="s" s="0">
         <v>2366</v>
       </c>
     </row>
